--- a/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.00075744203255</v>
+        <v>26.00075744203256</v>
       </c>
       <c r="C2">
         <v>24.14008372509064</v>
       </c>
       <c r="D2">
-        <v>5.714947148326012</v>
+        <v>5.714947148325892</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.82816366070398</v>
+        <v>41.82816366070395</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>22.25368714687246</v>
+        <v>22.25368714687243</v>
       </c>
       <c r="I2">
         <v>31.17439557010189</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.11918019865587</v>
+        <v>24.11918019865581</v>
       </c>
       <c r="C3">
-        <v>22.34045675697412</v>
+        <v>22.34045675697411</v>
       </c>
       <c r="D3">
-        <v>5.426686951649219</v>
+        <v>5.426686951649399</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>39.11678321512591</v>
+        <v>39.11678321512579</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>21.28878871777654</v>
+        <v>21.28878871777647</v>
       </c>
       <c r="I3">
-        <v>28.66248502754339</v>
+        <v>28.6624850275434</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.91195968953345</v>
+        <v>22.91195968953338</v>
       </c>
       <c r="C4">
-        <v>21.19065220034668</v>
+        <v>21.19065220034661</v>
       </c>
       <c r="D4">
-        <v>5.247084765081616</v>
+        <v>5.247084765081836</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.44368714046454</v>
+        <v>37.44368714046453</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>20.72071677365501</v>
+        <v>20.72071677365506</v>
       </c>
       <c r="I4">
-        <v>27.0811497681852</v>
+        <v>27.08114976818521</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.40646699635762</v>
+        <v>22.40646699635741</v>
       </c>
       <c r="C5">
-        <v>20.71025949942288</v>
+        <v>20.71025949942291</v>
       </c>
       <c r="D5">
-        <v>5.173119678851422</v>
+        <v>5.173119678851441</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.75951932889549</v>
+        <v>36.75951932889542</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20.49504734149306</v>
+        <v>20.4950473414932</v>
       </c>
       <c r="I5">
-        <v>26.42548187849108</v>
+        <v>26.42548187849097</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.32169950020933</v>
+        <v>22.3216995002092</v>
       </c>
       <c r="C6">
-        <v>20.62976053559107</v>
+        <v>20.62976053559106</v>
       </c>
       <c r="D6">
-        <v>5.160788202319799</v>
+        <v>5.160788202319858</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.64576838205564</v>
+        <v>36.64576838205556</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>20.45791928393596</v>
+        <v>20.45791928393603</v>
       </c>
       <c r="I6">
-        <v>26.3158906277153</v>
+        <v>26.31589062771521</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.90519785923201</v>
+        <v>22.90519785923204</v>
       </c>
       <c r="C7">
         <v>21.18422208190954</v>
       </c>
       <c r="D7">
-        <v>5.246090517385699</v>
+        <v>5.246090517385721</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.43446995028232</v>
+        <v>37.43446995028222</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>20.7176500853718</v>
       </c>
       <c r="I7">
-        <v>27.07235454227033</v>
+        <v>27.07235454227022</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.36245466621393</v>
+        <v>25.3624546662139</v>
       </c>
       <c r="C8">
-        <v>23.52850954302715</v>
+        <v>23.52850954302713</v>
       </c>
       <c r="D8">
-        <v>5.6160116340593</v>
+        <v>5.616011634059343</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40.89473286286052</v>
+        <v>40.89473286286048</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>21.91571987967986</v>
+        <v>21.91571987967987</v>
       </c>
       <c r="I8">
-        <v>30.31543045860066</v>
+        <v>30.31543045860077</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.79511547842672</v>
+        <v>29.79511547842675</v>
       </c>
       <c r="C9">
-        <v>27.80071686047271</v>
+        <v>27.80071686047278</v>
       </c>
       <c r="D9">
-        <v>6.328763108867573</v>
+        <v>6.32876310886742</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>47.85818022255429</v>
+        <v>47.85818022255454</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>24.4781191997849</v>
+        <v>24.47811919978508</v>
       </c>
       <c r="I9">
-        <v>36.44795286605878</v>
+        <v>36.44795286605883</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.86195533011018</v>
+        <v>32.86195533011027</v>
       </c>
       <c r="C10">
-        <v>30.79595402085743</v>
+        <v>30.79595402085726</v>
       </c>
       <c r="D10">
-        <v>6.861854418267309</v>
+        <v>6.861854418267163</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>53.19195904232393</v>
+        <v>53.19195904232403</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>26.56169711880486</v>
+        <v>26.56169711880496</v>
       </c>
       <c r="I10">
-        <v>40.96972952392849</v>
+        <v>40.96972952392856</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.23010506462158</v>
+        <v>34.23010506462132</v>
       </c>
       <c r="C11">
-        <v>32.14469304060585</v>
+        <v>32.14469304060572</v>
       </c>
       <c r="D11">
-        <v>7.112938294612063</v>
+        <v>7.112938294611948</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>55.64898628241611</v>
+        <v>55.64898628241561</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>27.7892216846051</v>
+        <v>27.78922168460483</v>
       </c>
       <c r="I11">
-        <v>43.08318714449339</v>
+        <v>43.08318714449322</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.74598501390288</v>
+        <v>34.74598501390294</v>
       </c>
       <c r="C12">
-        <v>32.65551140748471</v>
+        <v>32.65551140748479</v>
       </c>
       <c r="D12">
-        <v>7.210131825245385</v>
+        <v>7.210131825245377</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>56.58820100928509</v>
+        <v>56.58820100928536</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>28.26030183387824</v>
+        <v>28.2603018338784</v>
       </c>
       <c r="I12">
-        <v>43.89836040486021</v>
+        <v>43.89836040486031</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.63494628101186</v>
+        <v>34.63494628101169</v>
       </c>
       <c r="C13">
-        <v>32.54545287997454</v>
+        <v>32.54545287997455</v>
       </c>
       <c r="D13">
-        <v>7.189086913390064</v>
+        <v>7.189086913390076</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>56.38544430009057</v>
+        <v>56.38544430009036</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>28.15852356936443</v>
+        <v>28.15852356936428</v>
       </c>
       <c r="I13">
-        <v>43.721999313229</v>
+        <v>43.72199931322886</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.27257942928008</v>
+        <v>34.27257942927992</v>
       </c>
       <c r="C14">
-        <v>32.1867022602866</v>
+        <v>32.18670226028635</v>
       </c>
       <c r="D14">
-        <v>7.120885589176266</v>
+        <v>7.120885589176278</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>55.72604846100653</v>
+        <v>55.72604846100651</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>27.82783672433387</v>
+        <v>27.82783672433393</v>
       </c>
       <c r="I14">
-        <v>43.14990554877725</v>
+        <v>43.14990554877726</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.0503909976554</v>
+        <v>34.05039099765542</v>
       </c>
       <c r="C15">
-        <v>31.9670414463786</v>
+        <v>31.96704144637868</v>
       </c>
       <c r="D15">
-        <v>7.079418579166126</v>
+        <v>7.07941857916594</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>55.3234539649563</v>
+        <v>55.32345396495641</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>27.62617527141396</v>
+        <v>27.62617527141404</v>
       </c>
       <c r="I15">
-        <v>42.80166321686185</v>
+        <v>42.80166321686205</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.77213125869685</v>
+        <v>32.77213125869682</v>
       </c>
       <c r="C16">
-        <v>30.70769378374549</v>
+        <v>30.70769378374548</v>
       </c>
       <c r="D16">
-        <v>6.845684746232279</v>
+        <v>6.845684746232289</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>53.03234121795127</v>
+        <v>53.0323412179513</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>26.48220980915625</v>
       </c>
       <c r="I16">
-        <v>40.83326277696639</v>
+        <v>40.83326277696635</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.98207879829553</v>
+        <v>31.98207879829544</v>
       </c>
       <c r="C17">
-        <v>29.93285134559119</v>
+        <v>29.93285134559097</v>
       </c>
       <c r="D17">
-        <v>6.705007408164533</v>
+        <v>6.705007408164576</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>51.63730204141942</v>
+        <v>51.63730204141908</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>25.91982619379964</v>
+        <v>25.91982619379955</v>
       </c>
       <c r="I17">
-        <v>39.64419193363048</v>
+        <v>39.64419193363049</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.52499803898419</v>
+        <v>31.52499803898422</v>
       </c>
       <c r="C18">
-        <v>29.4857273109755</v>
+        <v>29.48572731097553</v>
       </c>
       <c r="D18">
         <v>6.624831469668142</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50.83746041653114</v>
+        <v>50.83746041653122</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>25.60919867448917</v>
+        <v>25.60919867448921</v>
       </c>
       <c r="I18">
-        <v>38.96506648356979</v>
+        <v>38.96506648356986</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.3697384491963</v>
+        <v>31.36973844919635</v>
       </c>
       <c r="C19">
-        <v>29.3340366964581</v>
+        <v>29.33403669645824</v>
       </c>
       <c r="D19">
-        <v>6.597791068103678</v>
+        <v>6.597791068103621</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>50.56697731205963</v>
+        <v>50.56697731205985</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>25.50479526408603</v>
+        <v>25.50479526408606</v>
       </c>
       <c r="I19">
-        <v>38.73578550102757</v>
+        <v>38.73578550102778</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.0664465096478</v>
+        <v>32.06644650964768</v>
       </c>
       <c r="C20">
-        <v>30.01547247412785</v>
+        <v>30.01547247412767</v>
       </c>
       <c r="D20">
-        <v>6.719901198849171</v>
+        <v>6.719901198849151</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>51.78551604763716</v>
+        <v>51.78551604763685</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>25.97769289119921</v>
+        <v>25.97769289119905</v>
       </c>
       <c r="I20">
-        <v>39.77023361943242</v>
+        <v>39.7702336194324</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.37905907881855</v>
+        <v>34.37905907881846</v>
       </c>
       <c r="C21">
-        <v>32.29205364404574</v>
+        <v>32.29205364404572</v>
       </c>
       <c r="D21">
-        <v>7.140851538481069</v>
+        <v>7.140851538480995</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>55.91944671494397</v>
+        <v>55.91944671494401</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>27.92477591744171</v>
+        <v>27.92477591744177</v>
       </c>
       <c r="I21">
-        <v>43.31747244087232</v>
+        <v>43.31747244087227</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.87887365170819</v>
+        <v>35.8788736517082</v>
       </c>
       <c r="C22">
-        <v>33.7819820538579</v>
+        <v>33.78198205385796</v>
       </c>
       <c r="D22">
-        <v>7.429045402018623</v>
+        <v>7.429045402018603</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>58.67594797369604</v>
+        <v>58.67594797369612</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>29.31078166151819</v>
+        <v>29.31078166151828</v>
       </c>
       <c r="I22">
-        <v>45.72790013152198</v>
+        <v>45.72790013152193</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>35.07873578961753</v>
       </c>
       <c r="C23">
-        <v>32.98569194534161</v>
+        <v>32.98569194534146</v>
       </c>
       <c r="D23">
-        <v>7.273622152449192</v>
+        <v>7.273622152449335</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>57.19778721373755</v>
+        <v>57.19778721373749</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.02831292124878</v>
+        <v>32.02831292124887</v>
       </c>
       <c r="C24">
-        <v>29.97812476728223</v>
+        <v>29.97812476728231</v>
       </c>
       <c r="D24">
-        <v>6.713165591700289</v>
+        <v>6.713165591700283</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>51.71850199449375</v>
+        <v>51.71850199449389</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>25.95151711308822</v>
+        <v>25.95151711308825</v>
       </c>
       <c r="I24">
-        <v>39.71323666163112</v>
+        <v>39.71323666163118</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.6331949531058</v>
+        <v>28.63319495310571</v>
       </c>
       <c r="C25">
-        <v>26.67488675020975</v>
+        <v>26.67488675020966</v>
       </c>
       <c r="D25">
-        <v>6.135905401778987</v>
+        <v>6.135905401778938</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>45.89958400101947</v>
+        <v>45.89958400101939</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23.75875705416123</v>
+        <v>23.75875705416124</v>
       </c>
       <c r="I25">
-        <v>34.79988514291649</v>
+        <v>34.79988514291644</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.00075744203256</v>
+        <v>26.00075744203255</v>
       </c>
       <c r="C2">
         <v>24.14008372509064</v>
       </c>
       <c r="D2">
-        <v>5.714947148325892</v>
+        <v>5.714947148326012</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.82816366070395</v>
+        <v>41.82816366070398</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>22.25368714687243</v>
+        <v>22.25368714687246</v>
       </c>
       <c r="I2">
         <v>31.17439557010189</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.11918019865581</v>
+        <v>24.11918019865587</v>
       </c>
       <c r="C3">
-        <v>22.34045675697411</v>
+        <v>22.34045675697412</v>
       </c>
       <c r="D3">
-        <v>5.426686951649399</v>
+        <v>5.426686951649219</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>39.11678321512579</v>
+        <v>39.11678321512591</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>21.28878871777647</v>
+        <v>21.28878871777654</v>
       </c>
       <c r="I3">
-        <v>28.6624850275434</v>
+        <v>28.66248502754339</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.91195968953338</v>
+        <v>22.91195968953345</v>
       </c>
       <c r="C4">
-        <v>21.19065220034661</v>
+        <v>21.19065220034668</v>
       </c>
       <c r="D4">
-        <v>5.247084765081836</v>
+        <v>5.247084765081616</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.44368714046453</v>
+        <v>37.44368714046454</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>20.72071677365506</v>
+        <v>20.72071677365501</v>
       </c>
       <c r="I4">
-        <v>27.08114976818521</v>
+        <v>27.0811497681852</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.40646699635741</v>
+        <v>22.40646699635762</v>
       </c>
       <c r="C5">
-        <v>20.71025949942291</v>
+        <v>20.71025949942288</v>
       </c>
       <c r="D5">
-        <v>5.173119678851441</v>
+        <v>5.173119678851422</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.75951932889542</v>
+        <v>36.75951932889549</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20.4950473414932</v>
+        <v>20.49504734149306</v>
       </c>
       <c r="I5">
-        <v>26.42548187849097</v>
+        <v>26.42548187849108</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.3216995002092</v>
+        <v>22.32169950020933</v>
       </c>
       <c r="C6">
-        <v>20.62976053559106</v>
+        <v>20.62976053559107</v>
       </c>
       <c r="D6">
-        <v>5.160788202319858</v>
+        <v>5.160788202319799</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.64576838205556</v>
+        <v>36.64576838205564</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>20.45791928393603</v>
+        <v>20.45791928393596</v>
       </c>
       <c r="I6">
-        <v>26.31589062771521</v>
+        <v>26.3158906277153</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.90519785923204</v>
+        <v>22.90519785923201</v>
       </c>
       <c r="C7">
         <v>21.18422208190954</v>
       </c>
       <c r="D7">
-        <v>5.246090517385721</v>
+        <v>5.246090517385699</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.43446995028222</v>
+        <v>37.43446995028232</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>20.7176500853718</v>
       </c>
       <c r="I7">
-        <v>27.07235454227022</v>
+        <v>27.07235454227033</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.3624546662139</v>
+        <v>25.36245466621393</v>
       </c>
       <c r="C8">
-        <v>23.52850954302713</v>
+        <v>23.52850954302715</v>
       </c>
       <c r="D8">
-        <v>5.616011634059343</v>
+        <v>5.6160116340593</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40.89473286286048</v>
+        <v>40.89473286286052</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>21.91571987967987</v>
+        <v>21.91571987967986</v>
       </c>
       <c r="I8">
-        <v>30.31543045860077</v>
+        <v>30.31543045860066</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.79511547842675</v>
+        <v>29.79511547842672</v>
       </c>
       <c r="C9">
-        <v>27.80071686047278</v>
+        <v>27.80071686047271</v>
       </c>
       <c r="D9">
-        <v>6.32876310886742</v>
+        <v>6.328763108867573</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>47.85818022255454</v>
+        <v>47.85818022255429</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>24.47811919978508</v>
+        <v>24.4781191997849</v>
       </c>
       <c r="I9">
-        <v>36.44795286605883</v>
+        <v>36.44795286605878</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.86195533011027</v>
+        <v>32.86195533011018</v>
       </c>
       <c r="C10">
-        <v>30.79595402085726</v>
+        <v>30.79595402085743</v>
       </c>
       <c r="D10">
-        <v>6.861854418267163</v>
+        <v>6.861854418267309</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>53.19195904232403</v>
+        <v>53.19195904232393</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>26.56169711880496</v>
+        <v>26.56169711880486</v>
       </c>
       <c r="I10">
-        <v>40.96972952392856</v>
+        <v>40.96972952392849</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.23010506462132</v>
+        <v>34.23010506462158</v>
       </c>
       <c r="C11">
-        <v>32.14469304060572</v>
+        <v>32.14469304060585</v>
       </c>
       <c r="D11">
-        <v>7.112938294611948</v>
+        <v>7.112938294612063</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>55.64898628241561</v>
+        <v>55.64898628241611</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>27.78922168460483</v>
+        <v>27.7892216846051</v>
       </c>
       <c r="I11">
-        <v>43.08318714449322</v>
+        <v>43.08318714449339</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.74598501390294</v>
+        <v>34.74598501390288</v>
       </c>
       <c r="C12">
-        <v>32.65551140748479</v>
+        <v>32.65551140748471</v>
       </c>
       <c r="D12">
-        <v>7.210131825245377</v>
+        <v>7.210131825245385</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>56.58820100928536</v>
+        <v>56.58820100928509</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>28.2603018338784</v>
+        <v>28.26030183387824</v>
       </c>
       <c r="I12">
-        <v>43.89836040486031</v>
+        <v>43.89836040486021</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.63494628101169</v>
+        <v>34.63494628101186</v>
       </c>
       <c r="C13">
-        <v>32.54545287997455</v>
+        <v>32.54545287997454</v>
       </c>
       <c r="D13">
-        <v>7.189086913390076</v>
+        <v>7.189086913390064</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>56.38544430009036</v>
+        <v>56.38544430009057</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>28.15852356936428</v>
+        <v>28.15852356936443</v>
       </c>
       <c r="I13">
-        <v>43.72199931322886</v>
+        <v>43.721999313229</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.27257942927992</v>
+        <v>34.27257942928008</v>
       </c>
       <c r="C14">
-        <v>32.18670226028635</v>
+        <v>32.1867022602866</v>
       </c>
       <c r="D14">
-        <v>7.120885589176278</v>
+        <v>7.120885589176266</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>55.72604846100651</v>
+        <v>55.72604846100653</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>27.82783672433393</v>
+        <v>27.82783672433387</v>
       </c>
       <c r="I14">
-        <v>43.14990554877726</v>
+        <v>43.14990554877725</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.05039099765542</v>
+        <v>34.0503909976554</v>
       </c>
       <c r="C15">
-        <v>31.96704144637868</v>
+        <v>31.9670414463786</v>
       </c>
       <c r="D15">
-        <v>7.07941857916594</v>
+        <v>7.079418579166126</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>55.32345396495641</v>
+        <v>55.3234539649563</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>27.62617527141404</v>
+        <v>27.62617527141396</v>
       </c>
       <c r="I15">
-        <v>42.80166321686205</v>
+        <v>42.80166321686185</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.77213125869682</v>
+        <v>32.77213125869685</v>
       </c>
       <c r="C16">
-        <v>30.70769378374548</v>
+        <v>30.70769378374549</v>
       </c>
       <c r="D16">
-        <v>6.845684746232289</v>
+        <v>6.845684746232279</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>53.0323412179513</v>
+        <v>53.03234121795127</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>26.48220980915625</v>
       </c>
       <c r="I16">
-        <v>40.83326277696635</v>
+        <v>40.83326277696639</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.98207879829544</v>
+        <v>31.98207879829553</v>
       </c>
       <c r="C17">
-        <v>29.93285134559097</v>
+        <v>29.93285134559119</v>
       </c>
       <c r="D17">
-        <v>6.705007408164576</v>
+        <v>6.705007408164533</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>51.63730204141908</v>
+        <v>51.63730204141942</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>25.91982619379955</v>
+        <v>25.91982619379964</v>
       </c>
       <c r="I17">
-        <v>39.64419193363049</v>
+        <v>39.64419193363048</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.52499803898422</v>
+        <v>31.52499803898419</v>
       </c>
       <c r="C18">
-        <v>29.48572731097553</v>
+        <v>29.4857273109755</v>
       </c>
       <c r="D18">
         <v>6.624831469668142</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50.83746041653122</v>
+        <v>50.83746041653114</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>25.60919867448921</v>
+        <v>25.60919867448917</v>
       </c>
       <c r="I18">
-        <v>38.96506648356986</v>
+        <v>38.96506648356979</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.36973844919635</v>
+        <v>31.3697384491963</v>
       </c>
       <c r="C19">
-        <v>29.33403669645824</v>
+        <v>29.3340366964581</v>
       </c>
       <c r="D19">
-        <v>6.597791068103621</v>
+        <v>6.597791068103678</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>50.56697731205985</v>
+        <v>50.56697731205963</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>25.50479526408606</v>
+        <v>25.50479526408603</v>
       </c>
       <c r="I19">
-        <v>38.73578550102778</v>
+        <v>38.73578550102757</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.06644650964768</v>
+        <v>32.0664465096478</v>
       </c>
       <c r="C20">
-        <v>30.01547247412767</v>
+        <v>30.01547247412785</v>
       </c>
       <c r="D20">
-        <v>6.719901198849151</v>
+        <v>6.719901198849171</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>51.78551604763685</v>
+        <v>51.78551604763716</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>25.97769289119905</v>
+        <v>25.97769289119921</v>
       </c>
       <c r="I20">
-        <v>39.7702336194324</v>
+        <v>39.77023361943242</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.37905907881846</v>
+        <v>34.37905907881855</v>
       </c>
       <c r="C21">
-        <v>32.29205364404572</v>
+        <v>32.29205364404574</v>
       </c>
       <c r="D21">
-        <v>7.140851538480995</v>
+        <v>7.140851538481069</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>55.91944671494401</v>
+        <v>55.91944671494397</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>27.92477591744177</v>
+        <v>27.92477591744171</v>
       </c>
       <c r="I21">
-        <v>43.31747244087227</v>
+        <v>43.31747244087232</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.8788736517082</v>
+        <v>35.87887365170819</v>
       </c>
       <c r="C22">
-        <v>33.78198205385796</v>
+        <v>33.7819820538579</v>
       </c>
       <c r="D22">
-        <v>7.429045402018603</v>
+        <v>7.429045402018623</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>58.67594797369612</v>
+        <v>58.67594797369604</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>29.31078166151828</v>
+        <v>29.31078166151819</v>
       </c>
       <c r="I22">
-        <v>45.72790013152193</v>
+        <v>45.72790013152198</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>35.07873578961753</v>
       </c>
       <c r="C23">
-        <v>32.98569194534146</v>
+        <v>32.98569194534161</v>
       </c>
       <c r="D23">
-        <v>7.273622152449335</v>
+        <v>7.273622152449192</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>57.19778721373749</v>
+        <v>57.19778721373755</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.02831292124887</v>
+        <v>32.02831292124878</v>
       </c>
       <c r="C24">
-        <v>29.97812476728231</v>
+        <v>29.97812476728223</v>
       </c>
       <c r="D24">
-        <v>6.713165591700283</v>
+        <v>6.713165591700289</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>51.71850199449389</v>
+        <v>51.71850199449375</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>25.95151711308825</v>
+        <v>25.95151711308822</v>
       </c>
       <c r="I24">
-        <v>39.71323666163118</v>
+        <v>39.71323666163112</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.63319495310571</v>
+        <v>28.6331949531058</v>
       </c>
       <c r="C25">
-        <v>26.67488675020966</v>
+        <v>26.67488675020975</v>
       </c>
       <c r="D25">
-        <v>6.135905401778938</v>
+        <v>6.135905401778987</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>45.89958400101939</v>
+        <v>45.89958400101947</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23.75875705416124</v>
+        <v>23.75875705416123</v>
       </c>
       <c r="I25">
-        <v>34.79988514291644</v>
+        <v>34.79988514291649</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.00075744203255</v>
+        <v>25.87036880960614</v>
       </c>
       <c r="C2">
-        <v>24.14008372509064</v>
+        <v>23.9820694663811</v>
       </c>
       <c r="D2">
-        <v>5.714947148326012</v>
+        <v>5.807767541087553</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.82816366070398</v>
+        <v>41.84462848561294</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.022933242097536</v>
       </c>
       <c r="H2">
-        <v>22.25368714687246</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>31.17439557010189</v>
+        <v>22.37718409086047</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>31.09525834072002</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.11918019865587</v>
+        <v>23.99468480359884</v>
       </c>
       <c r="C3">
-        <v>22.34045675697412</v>
+        <v>22.19068603266144</v>
       </c>
       <c r="D3">
-        <v>5.426686951649219</v>
+        <v>5.523422212731332</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>39.11678321512591</v>
+        <v>39.17798747249253</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.038005695276038</v>
       </c>
       <c r="H3">
-        <v>21.28878871777654</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>28.66248502754339</v>
+        <v>21.44176390685632</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>28.59277055445347</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.91195968953345</v>
+        <v>22.79106064743304</v>
       </c>
       <c r="C4">
-        <v>21.19065220034668</v>
+        <v>21.0460029934755</v>
       </c>
       <c r="D4">
-        <v>5.247084765081616</v>
+        <v>5.346454843675211</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.44368714046454</v>
+        <v>37.53477575788728</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.047313354026981</v>
       </c>
       <c r="H4">
-        <v>20.72071677365501</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>27.0811497681852</v>
+        <v>20.89259535830314</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>27.01690746956406</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.40646699635762</v>
+        <v>22.2870344795514</v>
       </c>
       <c r="C5">
-        <v>20.71025949942288</v>
+        <v>20.56772320660809</v>
       </c>
       <c r="D5">
-        <v>5.173119678851422</v>
+        <v>5.273624231795913</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.75951932889549</v>
+        <v>36.8634261672861</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.05112845132293</v>
       </c>
       <c r="H5">
-        <v>20.49504734149306</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>26.42548187849108</v>
+        <v>20.6748184663834</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>26.36341558001062</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.32169950020933</v>
+        <v>22.20251071861583</v>
       </c>
       <c r="C6">
-        <v>20.62976053559107</v>
+        <v>20.48757693790258</v>
       </c>
       <c r="D6">
-        <v>5.160788202319799</v>
+        <v>5.261484863516711</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.64576838205564</v>
+        <v>36.75184313982292</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.05176351633686</v>
       </c>
       <c r="H6">
-        <v>20.45791928393596</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>26.3158906277153</v>
+        <v>20.63901190447018</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>26.25418300977515</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.90519785923201</v>
+        <v>22.78431858377076</v>
       </c>
       <c r="C7">
-        <v>21.18422208190954</v>
+        <v>21.03960125275836</v>
       </c>
       <c r="D7">
-        <v>5.246090517385699</v>
+        <v>5.345475647041393</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.43446995028232</v>
+        <v>37.52572880940146</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.047364705377079</v>
       </c>
       <c r="H7">
-        <v>20.7176500853718</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>27.07235454227033</v>
+        <v>20.88963436647265</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>27.00814177986807</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.36245466621393</v>
+        <v>25.23410711446238</v>
       </c>
       <c r="C8">
-        <v>23.52850954302715</v>
+        <v>23.37333227152886</v>
       </c>
       <c r="D8">
-        <v>5.6160116340593</v>
+        <v>5.710135834163148</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40.89473286286052</v>
+        <v>40.92614524155408</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.028124930154661</v>
       </c>
       <c r="H8">
-        <v>21.91571987967986</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>30.31543045860066</v>
+        <v>22.04920835431325</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>30.2396243082747</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.79511547842672</v>
+        <v>29.6515337745557</v>
       </c>
       <c r="C9">
-        <v>27.80071686047271</v>
+        <v>27.62469945842419</v>
       </c>
       <c r="D9">
-        <v>6.328763108867573</v>
+        <v>6.414218624549766</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>47.85818022255429</v>
+        <v>47.72735465646458</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.990332547936269</v>
       </c>
       <c r="H9">
-        <v>24.4781191997849</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>36.44795286605878</v>
+        <v>24.54268875743314</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>36.345340154835</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.86195533011018</v>
+        <v>32.70595591804368</v>
       </c>
       <c r="C10">
-        <v>30.79595402085743</v>
+        <v>30.60333239365998</v>
       </c>
       <c r="D10">
-        <v>6.861854418267309</v>
+        <v>6.941523822291695</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>53.19195904232393</v>
+        <v>53.00092241219715</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.961657039208869</v>
       </c>
       <c r="H10">
-        <v>26.56169711880486</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>40.96972952392849</v>
+        <v>26.54889052144045</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>40.84147689502327</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.23010506462158</v>
+        <v>34.06785360281526</v>
       </c>
       <c r="C11">
-        <v>32.14469304060585</v>
+        <v>31.94378488357886</v>
       </c>
       <c r="D11">
-        <v>7.112938294612063</v>
+        <v>7.189920797069496</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>55.64898628241611</v>
+        <v>55.43053087064143</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.948134885272808</v>
       </c>
       <c r="H11">
-        <v>27.7892216846051</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>43.08318714449339</v>
+        <v>27.6901453149656</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>42.94053980261481</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.74598501390288</v>
+        <v>34.58123152514433</v>
       </c>
       <c r="C12">
-        <v>32.65551140748471</v>
+        <v>32.45129651525899</v>
       </c>
       <c r="D12">
-        <v>7.210131825245385</v>
+        <v>7.286060933556142</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>56.58820100928509</v>
+        <v>56.35919764909041</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.94291208906593</v>
       </c>
       <c r="H12">
-        <v>28.26030183387824</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>43.89836040486021</v>
+        <v>28.15461726287701</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>43.74965262590459</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.63494628101186</v>
+        <v>34.47073867495508</v>
       </c>
       <c r="C13">
-        <v>32.54545287997454</v>
+        <v>32.34195904160126</v>
       </c>
       <c r="D13">
-        <v>7.189086913390064</v>
+        <v>7.265245131096447</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>56.38544430009057</v>
+        <v>56.15872335965889</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.944042127521215</v>
       </c>
       <c r="H13">
-        <v>28.15852356936443</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>43.721999313229</v>
+        <v>28.05426503252841</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>43.57462875970275</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.27257942928008</v>
+        <v>34.11012518556154</v>
       </c>
       <c r="C14">
-        <v>32.1867022602866</v>
+        <v>31.98552592307928</v>
       </c>
       <c r="D14">
-        <v>7.120885589176266</v>
+        <v>7.197782372806872</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>55.72604846100653</v>
+        <v>55.50672976081591</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.947707487896753</v>
       </c>
       <c r="H14">
-        <v>27.82783672433387</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>43.14990554877725</v>
+        <v>27.72821779899743</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>43.00677353477847</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.0503909976554</v>
+        <v>33.88899137567073</v>
       </c>
       <c r="C15">
-        <v>31.9670414463786</v>
+        <v>31.76726021862444</v>
       </c>
       <c r="D15">
-        <v>7.079418579166126</v>
+        <v>7.156761948371103</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>55.3234539649563</v>
+        <v>55.10864183314589</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.949938109689195</v>
       </c>
       <c r="H15">
-        <v>27.62617527141396</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>42.80166321686185</v>
+        <v>27.52939194587614</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>42.661039453955</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.77213125869685</v>
+        <v>32.61652473730138</v>
       </c>
       <c r="C16">
-        <v>30.70769378374549</v>
+        <v>30.51559422024675</v>
       </c>
       <c r="D16">
-        <v>6.845684746232279</v>
+        <v>6.925526606914937</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>53.03234121795127</v>
+        <v>52.84308366249036</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.962528520252347</v>
       </c>
       <c r="H16">
-        <v>26.48220980915625</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>40.83326277696639</v>
+        <v>26.48701591704586</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>40.70588004585893</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.98207879829553</v>
+        <v>31.82984449682155</v>
       </c>
       <c r="C17">
-        <v>29.93285134559119</v>
+        <v>29.74524030462345</v>
       </c>
       <c r="D17">
-        <v>6.705007408164533</v>
+        <v>6.78635267195656</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>51.63730204141942</v>
+        <v>51.46361927941654</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.970109503259775</v>
       </c>
       <c r="H17">
-        <v>25.91982619379964</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>39.64419193363048</v>
+        <v>25.95079899521867</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>39.52411268709347</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.52499803898419</v>
+        <v>31.37465040626729</v>
       </c>
       <c r="C18">
-        <v>29.4857273109755</v>
+        <v>29.3006340000914</v>
       </c>
       <c r="D18">
-        <v>6.624831469668142</v>
+        <v>6.707038605810143</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50.83746041653114</v>
+        <v>50.67274556047833</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.974427467580708</v>
       </c>
       <c r="H18">
-        <v>25.60919867448917</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>38.96506648356979</v>
+        <v>25.64718121190653</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>38.84894867006609</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.3697384491963</v>
+        <v>31.22002161691084</v>
       </c>
       <c r="C19">
-        <v>29.3340366964581</v>
+        <v>29.14978632634469</v>
       </c>
       <c r="D19">
-        <v>6.597791068103678</v>
+        <v>6.680290143035583</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>50.56697731205963</v>
+        <v>50.40530437576547</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.975883018256015</v>
       </c>
       <c r="H19">
-        <v>25.50479526408603</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>38.73578550102757</v>
+        <v>25.5451596199639</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>38.62097267206351</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.0664465096478</v>
+        <v>31.91385898194406</v>
       </c>
       <c r="C20">
-        <v>30.01547247412785</v>
+        <v>29.82739060383828</v>
       </c>
       <c r="D20">
-        <v>6.719901198849171</v>
+        <v>6.801086870376519</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>51.78551604763716</v>
+        <v>51.61017527261048</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.96930709213832</v>
       </c>
       <c r="H20">
-        <v>25.97769289119921</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>39.77023361943242</v>
+        <v>26.00737203608948</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>39.64940287674595</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.37905907881855</v>
+        <v>34.21609398952738</v>
       </c>
       <c r="C21">
-        <v>32.29205364404574</v>
+        <v>32.09020185536685</v>
       </c>
       <c r="D21">
-        <v>7.140851538481069</v>
+        <v>7.217532674991989</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>55.91944671494397</v>
+        <v>55.69795993292583</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.946633986183608</v>
       </c>
       <c r="H21">
-        <v>27.92477591744171</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>43.31747244087232</v>
+        <v>27.82379574542276</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>43.17311438497622</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.87887365170819</v>
+        <v>35.70829755595732</v>
       </c>
       <c r="C22">
-        <v>33.7819820538579</v>
+        <v>33.57008790684509</v>
       </c>
       <c r="D22">
-        <v>7.429045402018623</v>
+        <v>7.502544149088155</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>58.67594797369604</v>
+        <v>58.42319935654758</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.931194058078108</v>
       </c>
       <c r="H22">
-        <v>29.31078166151819</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>45.72790013152198</v>
+        <v>29.19039073638243</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>45.56439663097301</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.07873578961753</v>
+        <v>34.91232115279976</v>
       </c>
       <c r="C23">
-        <v>32.98569194534161</v>
+        <v>32.77928411156535</v>
       </c>
       <c r="D23">
-        <v>7.273622152449192</v>
+        <v>7.348855949314441</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>57.19778721373755</v>
+        <v>56.96190032213354</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.939506156150753</v>
       </c>
       <c r="H23">
-        <v>28.56656179307244</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>44.42992578171931</v>
+        <v>28.45658957212743</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>44.27709671050248</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.02831292124878</v>
+        <v>31.87588524609082</v>
       </c>
       <c r="C24">
-        <v>29.97812476728223</v>
+        <v>29.79025595022399</v>
       </c>
       <c r="D24">
-        <v>6.713165591700289</v>
+        <v>6.794423420703113</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>51.71850199449375</v>
+        <v>51.54391075335555</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.96966998582601</v>
       </c>
       <c r="H24">
-        <v>25.95151711308822</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>39.71323666163112</v>
+        <v>25.98178097886885</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>39.59274639562803</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.6331949531058</v>
+        <v>28.49386801705072</v>
       </c>
       <c r="C25">
-        <v>26.67488675020975</v>
+        <v>26.50462308148487</v>
       </c>
       <c r="D25">
-        <v>6.135905401778987</v>
+        <v>6.223562358218236</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>45.89958400101947</v>
+        <v>45.79168824587539</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.000640461097663</v>
       </c>
       <c r="H25">
-        <v>23.75875705416123</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>34.79988514291649</v>
+        <v>23.84127354064148</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>34.70523403708989</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.87036880960614</v>
+        <v>20.49691204172202</v>
       </c>
       <c r="C2">
-        <v>23.9820694663811</v>
+        <v>9.984863420273168</v>
       </c>
       <c r="D2">
-        <v>5.807767541087553</v>
+        <v>10.4308735847864</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.84462848561294</v>
+        <v>63.92699183626509</v>
       </c>
       <c r="G2">
-        <v>2.022933242097536</v>
+        <v>2.091828166029832</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.37718409086047</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>31.09525834072002</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.12203219357892</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.093611921191799</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.99468480359884</v>
+        <v>18.98135243590152</v>
       </c>
       <c r="C3">
-        <v>22.19068603266144</v>
+        <v>9.378955107996067</v>
       </c>
       <c r="D3">
-        <v>5.523422212731332</v>
+        <v>10.0027621487349</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>39.17798747249253</v>
+        <v>60.26133453598845</v>
       </c>
       <c r="G3">
-        <v>2.038005695276038</v>
+        <v>2.106151792398771</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.44176390685632</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>28.59277055445347</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.91016291006994</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.808847763382071</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.79106064743304</v>
+        <v>18.13029443438484</v>
       </c>
       <c r="C4">
-        <v>21.0460029934755</v>
+        <v>8.99548990127229</v>
       </c>
       <c r="D4">
-        <v>5.346454843675211</v>
+        <v>9.736932575946721</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.53477575788728</v>
+        <v>57.9544850443388</v>
       </c>
       <c r="G4">
-        <v>2.047313354026981</v>
+        <v>2.115071199404963</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.89259535830314</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>27.01690746956406</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.13415822797201</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.636831845754409</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.2870344795514</v>
+        <v>17.78523053630674</v>
       </c>
       <c r="C5">
-        <v>20.56772320660809</v>
+        <v>8.836215808562839</v>
       </c>
       <c r="D5">
-        <v>5.273624231795913</v>
+        <v>9.627850958526924</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.8634261672861</v>
+        <v>57.00048515662068</v>
       </c>
       <c r="G5">
-        <v>2.05112845132293</v>
+        <v>2.11874276039041</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.6748184663834</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>26.36341558001062</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.8096399496777</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.567474581265789</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.20251071861583</v>
+        <v>17.72766680503854</v>
       </c>
       <c r="C6">
-        <v>20.48757693790258</v>
+        <v>8.809583355337052</v>
       </c>
       <c r="D6">
-        <v>5.261484863516711</v>
+        <v>9.609692640832122</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.75184313982292</v>
+        <v>56.84124160411045</v>
       </c>
       <c r="G6">
-        <v>2.05176351633686</v>
+        <v>2.11935479447383</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.63901190447018</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>26.25418300977515</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.75524597654199</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.556003630975228</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.78431858377076</v>
+        <v>18.12565876556457</v>
       </c>
       <c r="C7">
-        <v>21.03960125275836</v>
+        <v>8.99335421478311</v>
       </c>
       <c r="D7">
-        <v>5.345475647041393</v>
+        <v>9.735464512089187</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.52572880940146</v>
+        <v>57.94167512104153</v>
       </c>
       <c r="G7">
-        <v>2.047364705377079</v>
+        <v>2.115120559393903</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.88963436647265</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>27.00814177986807</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.1298155591281</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.635893424967956</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.23410711446238</v>
+        <v>19.98157960640942</v>
       </c>
       <c r="C8">
-        <v>23.37333227152886</v>
+        <v>9.778230416897257</v>
       </c>
       <c r="D8">
-        <v>5.710135834163148</v>
+        <v>10.28386571032715</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40.92614524155408</v>
+        <v>62.67475412661173</v>
       </c>
       <c r="G8">
-        <v>2.028124930154661</v>
+        <v>2.096744575434688</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.04920835431325</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>30.2396243082747</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.71063436971004</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.994851485472601</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.6515337745557</v>
+        <v>23.57793125518318</v>
       </c>
       <c r="C9">
-        <v>27.62469945842419</v>
+        <v>11.23426957914464</v>
       </c>
       <c r="D9">
-        <v>6.414218624549766</v>
+        <v>11.33728134240274</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>47.72735465646458</v>
+        <v>71.51583034813397</v>
       </c>
       <c r="G9">
-        <v>1.990332547936269</v>
+        <v>2.061415014893082</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.54268875743314</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>36.345340154835</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.57102508977121</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.720701372192547</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.70595591804368</v>
+        <v>26.07676526144956</v>
       </c>
       <c r="C10">
-        <v>30.60333239365998</v>
+        <v>12.26676350751362</v>
       </c>
       <c r="D10">
-        <v>6.941523822291695</v>
+        <v>12.10202234837345</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>53.00092241219715</v>
+        <v>77.76834148131485</v>
       </c>
       <c r="G10">
-        <v>1.961657039208869</v>
+        <v>2.035426008096314</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.54889052144045</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>40.84147689502327</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20.54852997086993</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.268118295874482</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.06785360281526</v>
+        <v>27.18888393558209</v>
       </c>
       <c r="C11">
-        <v>31.94378488357886</v>
+        <v>12.73230742677855</v>
       </c>
       <c r="D11">
-        <v>7.189920797069496</v>
+        <v>12.44952985910515</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>55.43053087064143</v>
+        <v>80.57124377852693</v>
       </c>
       <c r="G11">
-        <v>1.948134885272808</v>
+        <v>2.023468372164276</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.6901453149656</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>42.94053980261481</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21.42722187558486</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.520904235682091</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.58123152514433</v>
+        <v>27.60716669579529</v>
       </c>
       <c r="C12">
-        <v>32.45129651525899</v>
+        <v>12.90841728445874</v>
       </c>
       <c r="D12">
-        <v>7.286060933556142</v>
+        <v>12.5812581788358</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>56.35919764909041</v>
+        <v>81.62804312460811</v>
       </c>
       <c r="G12">
-        <v>1.94291208906593</v>
+        <v>2.018907784056755</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.15461726287701</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>43.74965262590459</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.75756807479847</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.617268860367131</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.47073867495508</v>
+        <v>27.51719634240857</v>
       </c>
       <c r="C13">
-        <v>32.34195904160126</v>
+        <v>12.87048939211443</v>
       </c>
       <c r="D13">
-        <v>7.265245131096447</v>
+        <v>12.55287853809871</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>56.15872335965889</v>
+        <v>81.40062120397013</v>
       </c>
       <c r="G13">
-        <v>1.944042127521215</v>
+        <v>2.019891668821171</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.05426503252841</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>43.57462875970275</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.68651772426633</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.596484526108361</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.11012518556154</v>
+        <v>27.22334901318517</v>
       </c>
       <c r="C14">
-        <v>31.98552592307928</v>
+        <v>12.74679703884676</v>
       </c>
       <c r="D14">
-        <v>7.197782372806872</v>
+        <v>12.46036324971606</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>55.50672976081591</v>
+        <v>80.65827030327901</v>
       </c>
       <c r="G14">
-        <v>1.947707487896753</v>
+        <v>2.02309390489098</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.72821779899743</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>43.00677353477847</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21.45444377147465</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.52881866933819</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.88899137567073</v>
+        <v>27.04301046794166</v>
       </c>
       <c r="C15">
-        <v>31.76726021862444</v>
+        <v>12.67102206004111</v>
       </c>
       <c r="D15">
-        <v>7.156761948371103</v>
+        <v>12.4037190459792</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>55.10864183314589</v>
+        <v>80.20300690444397</v>
       </c>
       <c r="G15">
-        <v>1.949938109689195</v>
+        <v>2.025050704993052</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>27.52939194587614</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>42.661039453955</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>21.31199981049035</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.487458371006554</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.61652473730138</v>
+        <v>26.0036458715517</v>
       </c>
       <c r="C16">
-        <v>30.51559422024675</v>
+        <v>12.23628921841099</v>
       </c>
       <c r="D16">
-        <v>6.925526606914937</v>
+        <v>12.07931928745453</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>52.84308366249036</v>
+        <v>77.58443923221611</v>
       </c>
       <c r="G16">
-        <v>1.962528520252347</v>
+        <v>2.036203687818336</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.48701591704586</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>40.70588004585893</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.49073459089671</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.251681414523807</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.82984449682155</v>
+        <v>25.36016998251637</v>
       </c>
       <c r="C17">
-        <v>29.74524030462345</v>
+        <v>11.96880212440438</v>
       </c>
       <c r="D17">
-        <v>6.78635267195656</v>
+        <v>11.8803322401084</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>51.46361927941654</v>
+        <v>75.96827490088035</v>
       </c>
       <c r="G17">
-        <v>1.970109503259775</v>
+        <v>2.043002530143259</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.95079899521867</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>39.52411268709347</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.98196463993209</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.108061825459195</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.37465040626729</v>
+        <v>24.98769406099782</v>
       </c>
       <c r="C18">
-        <v>29.3006340000914</v>
+        <v>11.8145313397428</v>
       </c>
       <c r="D18">
-        <v>6.707038605810143</v>
+        <v>11.76583048332332</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50.67274556047833</v>
+        <v>75.034701073961</v>
       </c>
       <c r="G18">
-        <v>1.974427467580708</v>
+        <v>2.046901238155871</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.64718121190653</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>38.84894867006609</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.68732563754987</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.025801743330378</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.22002161691084</v>
+        <v>24.86115517765002</v>
       </c>
       <c r="C19">
-        <v>29.14978632634469</v>
+        <v>11.76221463518577</v>
       </c>
       <c r="D19">
-        <v>6.680290143035583</v>
+        <v>11.72704870931551</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>50.40530437576547</v>
+        <v>74.71788711397109</v>
       </c>
       <c r="G19">
-        <v>1.975883018256015</v>
+        <v>2.04821960507935</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.5451596199639</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>38.62097267206351</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.58720429476934</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.998006962891321</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.91385898194406</v>
+        <v>25.42890940002077</v>
       </c>
       <c r="C20">
-        <v>29.82739060383828</v>
+        <v>11.99731724798887</v>
       </c>
       <c r="D20">
-        <v>6.801086870376519</v>
+        <v>11.90151869000966</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>51.61017527261048</v>
+        <v>76.14072362957786</v>
       </c>
       <c r="G20">
-        <v>1.96930709213832</v>
+        <v>2.042280090538267</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.00737203608948</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>39.64940287674595</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>20.03632783523735</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.123313965611363</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.21609398952738</v>
+        <v>27.30973029848705</v>
       </c>
       <c r="C21">
-        <v>32.09020185536685</v>
+        <v>12.78312966422172</v>
       </c>
       <c r="D21">
-        <v>7.217532674991989</v>
+        <v>12.48753179816907</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>55.69795993292583</v>
+        <v>80.87642881798979</v>
       </c>
       <c r="G21">
-        <v>1.946633986183608</v>
+        <v>2.022154329075189</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.82379574542276</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>43.17311438497622</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.52266911084009</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.548675406438727</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.70829755595732</v>
+        <v>28.52276167740929</v>
       </c>
       <c r="C22">
-        <v>33.57008790684509</v>
+        <v>13.29590624785682</v>
       </c>
       <c r="D22">
-        <v>7.502544149088155</v>
+        <v>12.87143998985832</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>58.42319935654758</v>
+        <v>83.9456069660893</v>
       </c>
       <c r="G22">
-        <v>1.931194058078108</v>
+        <v>2.008803572207165</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>29.19039073638243</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>45.56439663097301</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>22.48048792513199</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.83048191712825</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.91232115279976</v>
+        <v>27.87655830874</v>
       </c>
       <c r="C23">
-        <v>32.77928411156535</v>
+        <v>13.02213947552503</v>
       </c>
       <c r="D23">
-        <v>7.348855949314441</v>
+        <v>12.66638002361151</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>56.96190032213354</v>
+        <v>82.30934261315484</v>
       </c>
       <c r="G23">
-        <v>1.939506156150753</v>
+        <v>2.015952198276083</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.45658957212743</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>44.27709671050248</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.97029326347544</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.679684123428425</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.87588524609082</v>
+        <v>25.39784024892272</v>
       </c>
       <c r="C24">
-        <v>29.79025595022399</v>
+        <v>11.98442711321359</v>
       </c>
       <c r="D24">
-        <v>6.794423420703113</v>
+        <v>11.89194062537</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>51.54391075335555</v>
+        <v>76.06277342145735</v>
       </c>
       <c r="G24">
-        <v>1.96966998582601</v>
+        <v>2.042606735802303</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.98178097886885</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>39.59274639562803</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>20.01175694553626</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.116417518236593</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.49386801705072</v>
+        <v>22.63205255232773</v>
       </c>
       <c r="C25">
-        <v>26.50462308148487</v>
+        <v>10.84804906065937</v>
       </c>
       <c r="D25">
-        <v>6.223562358218236</v>
+        <v>11.05433683721717</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>45.79168824587539</v>
+        <v>69.16957511153252</v>
       </c>
       <c r="G25">
-        <v>2.000640461097663</v>
+        <v>2.070940519469921</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.84127354064148</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>34.70523403708989</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.82078227916513</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.521992820254772</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.49691204172202</v>
+        <v>14.71349753596153</v>
       </c>
       <c r="C2">
-        <v>9.984863420273168</v>
+        <v>6.664008583937639</v>
       </c>
       <c r="D2">
-        <v>10.4308735847864</v>
+        <v>4.214161458030671</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.92699183626509</v>
+        <v>30.29878225923928</v>
       </c>
       <c r="G2">
-        <v>2.091828166029832</v>
+        <v>38.9964221041011</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>13.0613173449352</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.442576919184035</v>
       </c>
       <c r="K2">
-        <v>16.12203219357892</v>
+        <v>10.98549517503671</v>
       </c>
       <c r="L2">
-        <v>8.093611921191799</v>
+        <v>6.668312522513076</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.94311626771529</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>15.42016441627769</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.98135243590152</v>
+        <v>13.93921887838363</v>
       </c>
       <c r="C3">
-        <v>9.378955107996067</v>
+        <v>6.495083604480426</v>
       </c>
       <c r="D3">
-        <v>10.0027621487349</v>
+        <v>4.115079793074798</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>60.26133453598845</v>
+        <v>30.02193836566897</v>
       </c>
       <c r="G3">
-        <v>2.106151792398771</v>
+        <v>38.51427936852849</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>13.07189316491372</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.486544919271227</v>
       </c>
       <c r="K3">
-        <v>14.91016291006994</v>
+        <v>10.4040845548936</v>
       </c>
       <c r="L3">
-        <v>7.808847763382071</v>
+        <v>6.609379558997122</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.67517915005339</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>15.62512126642151</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.13029443438484</v>
+        <v>13.44859209638197</v>
       </c>
       <c r="C4">
-        <v>8.99548990127229</v>
+        <v>6.38889958806491</v>
       </c>
       <c r="D4">
-        <v>9.736932575946721</v>
+        <v>4.05436476523522</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.9544850443388</v>
+        <v>29.87075552134808</v>
       </c>
       <c r="G4">
-        <v>2.115071199404963</v>
+        <v>38.24538835445031</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>13.08536371975878</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.514663372752372</v>
       </c>
       <c r="K4">
-        <v>14.13415822797201</v>
+        <v>10.0353410996953</v>
       </c>
       <c r="L4">
-        <v>7.636831845754409</v>
+        <v>6.575399830705382</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.51220944078329</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>15.75439528772361</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.78523053630674</v>
+        <v>13.24507022508404</v>
       </c>
       <c r="C5">
-        <v>8.836215808562839</v>
+        <v>6.345030289688427</v>
       </c>
       <c r="D5">
-        <v>9.627850958526924</v>
+        <v>4.02968458029831</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>57.00048515662068</v>
+        <v>29.81378783515134</v>
       </c>
       <c r="G5">
-        <v>2.11874276039041</v>
+        <v>38.14253035064205</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>13.09255336024953</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.526406012085427</v>
       </c>
       <c r="K5">
-        <v>13.8096399496777</v>
+        <v>9.882294117157297</v>
       </c>
       <c r="L5">
-        <v>7.567474581265789</v>
+        <v>6.562109900963016</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.44626785201867</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>15.80795078648826</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.72766680503854</v>
+        <v>13.21106675648737</v>
       </c>
       <c r="C6">
-        <v>8.809583355337052</v>
+        <v>6.337710342037925</v>
       </c>
       <c r="D6">
-        <v>9.609692640832122</v>
+        <v>4.025591109073446</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>56.84124160411045</v>
+        <v>29.80460596263414</v>
       </c>
       <c r="G6">
-        <v>2.11935479447383</v>
+        <v>38.12585305159772</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>13.09384832138152</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.528373088742379</v>
       </c>
       <c r="K6">
-        <v>13.75524597654199</v>
+        <v>9.856718580546378</v>
       </c>
       <c r="L6">
-        <v>7.556003630975228</v>
+        <v>6.559936822629918</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.43534909836178</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>15.81689687695155</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.12565876556457</v>
+        <v>13.44586150647549</v>
       </c>
       <c r="C7">
-        <v>8.99335421478311</v>
+        <v>6.388310344960122</v>
       </c>
       <c r="D7">
-        <v>9.735464512089187</v>
+        <v>4.054031628000546</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.94167512104153</v>
+        <v>29.86996856691462</v>
       </c>
       <c r="G7">
-        <v>2.115120559393903</v>
+        <v>38.2439741336234</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>13.08545386825447</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.51482058493946</v>
       </c>
       <c r="K7">
-        <v>14.1298155591281</v>
+        <v>10.03328805937458</v>
       </c>
       <c r="L7">
-        <v>7.635893424967956</v>
+        <v>6.575218339696113</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.5113181178296</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>15.75511399488654</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.98157960640942</v>
+        <v>14.44981429415314</v>
       </c>
       <c r="C8">
-        <v>9.778230416897257</v>
+        <v>6.606286328022675</v>
       </c>
       <c r="D8">
-        <v>10.28386571032715</v>
+        <v>4.17999120432549</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.67475412661173</v>
+        <v>30.19937468429002</v>
       </c>
       <c r="G8">
-        <v>2.096744575434688</v>
+        <v>38.82448443824438</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>13.06348297552732</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.45750545908853</v>
       </c>
       <c r="K8">
-        <v>15.71063436971004</v>
+        <v>10.78755940337182</v>
       </c>
       <c r="L8">
-        <v>7.994851485472601</v>
+        <v>6.647536461450623</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.85045907853245</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>15.49012948226689</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.57793125518318</v>
+        <v>16.28947576453455</v>
       </c>
       <c r="C9">
-        <v>11.23426957914464</v>
+        <v>7.013411117254196</v>
       </c>
       <c r="D9">
-        <v>11.33728134240274</v>
+        <v>4.426660550779834</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.51583034813397</v>
+        <v>30.99801269726581</v>
       </c>
       <c r="G9">
-        <v>2.061415014893082</v>
+        <v>40.18237660399983</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>13.07822973449089</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.353919019346031</v>
       </c>
       <c r="K9">
-        <v>18.57102508977121</v>
+        <v>12.34315990751634</v>
       </c>
       <c r="L9">
-        <v>8.720701372192547</v>
+        <v>6.806710989976912</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.52434374988917</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>14.99712089554152</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.07676526144956</v>
+        <v>17.55384722732686</v>
       </c>
       <c r="C10">
-        <v>12.26676350751362</v>
+        <v>7.299308441547519</v>
       </c>
       <c r="D10">
-        <v>12.10202234837345</v>
+        <v>4.606059689760698</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.76834148131485</v>
+        <v>31.68216236643544</v>
       </c>
       <c r="G10">
-        <v>2.035426008096314</v>
+        <v>41.31859337864187</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>13.12778717596326</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.283050957387575</v>
       </c>
       <c r="K10">
-        <v>20.54852997086993</v>
+        <v>13.4703232375934</v>
       </c>
       <c r="L10">
-        <v>9.268118295874482</v>
+        <v>6.934025428883174</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.02055052837706</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>14.65032218660532</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.18888393558209</v>
+        <v>18.1089493003487</v>
       </c>
       <c r="C11">
-        <v>12.73230742677855</v>
+        <v>7.426387559273169</v>
       </c>
       <c r="D11">
-        <v>12.44952985910515</v>
+        <v>4.686971584086393</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.57124377852693</v>
+        <v>32.01534854883498</v>
       </c>
       <c r="G11">
-        <v>2.023468372164276</v>
+        <v>41.86638209433868</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>13.15950833573864</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.251919261811296</v>
       </c>
       <c r="K11">
-        <v>21.42722187558486</v>
+        <v>13.957564752751</v>
       </c>
       <c r="L11">
-        <v>9.520904235682091</v>
+        <v>6.994143634270905</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.24572983401052</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>14.49573030780727</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.60716669579529</v>
+        <v>18.31620517521771</v>
       </c>
       <c r="C12">
-        <v>12.90841728445874</v>
+        <v>7.474075422853085</v>
       </c>
       <c r="D12">
-        <v>12.5812581788358</v>
+        <v>4.717488026029891</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.62804312460811</v>
+        <v>32.14473395676021</v>
       </c>
       <c r="G12">
-        <v>2.018907784056755</v>
+        <v>42.07831572249801</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>13.17290470869336</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.240287293115341</v>
       </c>
       <c r="K12">
-        <v>21.75756807479847</v>
+        <v>14.13846077181845</v>
       </c>
       <c r="L12">
-        <v>9.617268860367131</v>
+        <v>7.017220736838384</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.33086245076528</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>14.4376331184054</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.51719634240857</v>
+        <v>18.27170085047062</v>
       </c>
       <c r="C13">
-        <v>12.87048939211443</v>
+        <v>7.463824364424094</v>
       </c>
       <c r="D13">
-        <v>12.55287853809871</v>
+        <v>4.710921578580462</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.40062120397013</v>
+        <v>32.11672462125075</v>
       </c>
       <c r="G13">
-        <v>2.019891668821171</v>
+        <v>42.03247116814693</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>13.16995695066178</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.242785501435144</v>
       </c>
       <c r="K13">
-        <v>21.68651772426633</v>
+        <v>14.09966128031892</v>
       </c>
       <c r="L13">
-        <v>9.596484526108361</v>
+        <v>7.012236887786242</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.31253461773075</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>14.45012585557716</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.22334901318517</v>
+        <v>18.12605975525437</v>
       </c>
       <c r="C14">
-        <v>12.74679703884676</v>
+        <v>7.430319595011305</v>
       </c>
       <c r="D14">
-        <v>12.46036324971606</v>
+        <v>4.68948478015244</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.65827030327901</v>
+        <v>32.02592841212468</v>
       </c>
       <c r="G14">
-        <v>2.02309390489098</v>
+        <v>41.88372756536402</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>13.16058234562265</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.25095916030712</v>
       </c>
       <c r="K14">
-        <v>21.45444377147465</v>
+        <v>13.97251922809207</v>
       </c>
       <c r="L14">
-        <v>9.52881866933819</v>
+        <v>6.996035983841161</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.25273682289642</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>14.49094179859323</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.04301046794166</v>
+        <v>18.03646480955457</v>
       </c>
       <c r="C15">
-        <v>12.67102206004111</v>
+        <v>7.409740278181742</v>
       </c>
       <c r="D15">
-        <v>12.4037190459792</v>
+        <v>4.67633744973405</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.20300690444397</v>
+        <v>31.97073345377295</v>
       </c>
       <c r="G15">
-        <v>2.025050704993052</v>
+        <v>41.79320508410873</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>13.15502234257202</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.255986133654984</v>
       </c>
       <c r="K15">
-        <v>21.31199981049035</v>
+        <v>13.89417241889731</v>
       </c>
       <c r="L15">
-        <v>9.487458371006554</v>
+        <v>6.986152900768711</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.21608935374701</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>14.51600013319055</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.0036458715517</v>
+        <v>17.51716022671959</v>
       </c>
       <c r="C16">
-        <v>12.23628921841099</v>
+        <v>7.290943017931344</v>
       </c>
       <c r="D16">
-        <v>12.07931928745453</v>
+        <v>4.600755864163591</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.58443923221611</v>
+        <v>31.66083472522673</v>
       </c>
       <c r="G16">
-        <v>2.036203687818336</v>
+        <v>41.28342074747945</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>13.12590428066513</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.285107566739653</v>
       </c>
       <c r="K16">
-        <v>20.49073459089671</v>
+        <v>13.43797229798966</v>
       </c>
       <c r="L16">
-        <v>9.251681414523807</v>
+        <v>6.930140443898614</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.00581829487495</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>14.66048783016359</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.36016998251637</v>
+        <v>17.19339123294442</v>
       </c>
       <c r="C17">
-        <v>11.96880212440438</v>
+        <v>7.217296868193208</v>
       </c>
       <c r="D17">
-        <v>11.8803322401084</v>
+        <v>4.554193340966208</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>75.96827490088035</v>
+        <v>31.47638836578501</v>
       </c>
       <c r="G17">
-        <v>2.043002530143259</v>
+        <v>40.97864133603274</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>13.11043730031519</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.303254484754896</v>
       </c>
       <c r="K17">
-        <v>19.98196463993209</v>
+        <v>13.15161384711421</v>
       </c>
       <c r="L17">
-        <v>9.108061825459195</v>
+        <v>6.89633904383235</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.87663925402956</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>14.74992902019825</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.98769406099782</v>
+        <v>17.00528129059401</v>
       </c>
       <c r="C18">
-        <v>11.8145313397428</v>
+        <v>7.174657508197938</v>
       </c>
       <c r="D18">
-        <v>11.76583048332332</v>
+        <v>4.527347359087557</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.034701073961</v>
+        <v>31.37236379485092</v>
       </c>
       <c r="G18">
-        <v>2.046901238155871</v>
+        <v>40.80624763510101</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>13.10240095974105</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.313796397661957</v>
       </c>
       <c r="K18">
-        <v>19.68732563754987</v>
+        <v>12.98450330180073</v>
       </c>
       <c r="L18">
-        <v>9.025801743330378</v>
+        <v>6.877104958052869</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.80229045093056</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>14.80167217299247</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.86115517765002</v>
+        <v>16.94126880150276</v>
       </c>
       <c r="C19">
-        <v>11.76221463518577</v>
+        <v>7.160172696042443</v>
       </c>
       <c r="D19">
-        <v>11.72704870931551</v>
+        <v>4.518247435254583</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.71788711397109</v>
+        <v>31.33749560271217</v>
       </c>
       <c r="G19">
-        <v>2.04821960507935</v>
+        <v>40.74837580151902</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>13.09982572986354</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.317383685676399</v>
       </c>
       <c r="K19">
-        <v>19.58720429476934</v>
+        <v>12.92750784437523</v>
       </c>
       <c r="L19">
-        <v>8.998006962891321</v>
+        <v>6.870628435393657</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.77711082145891</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>14.8192432418681</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.42890940002077</v>
+        <v>17.22805278429128</v>
       </c>
       <c r="C20">
-        <v>11.99731724798887</v>
+        <v>7.225165664697272</v>
       </c>
       <c r="D20">
-        <v>11.90151869000966</v>
+        <v>4.559156844163503</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.14072362957786</v>
+        <v>31.49580895105668</v>
       </c>
       <c r="G20">
-        <v>2.042280090538267</v>
+        <v>41.01078434041391</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>13.11199433160672</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.301311936966772</v>
       </c>
       <c r="K20">
-        <v>20.03632783523735</v>
+        <v>13.18234567255754</v>
       </c>
       <c r="L20">
-        <v>9.123313965611363</v>
+        <v>6.899915813173411</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.89039604715468</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>14.7403770035886</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.30973029848705</v>
+        <v>18.16891850916666</v>
       </c>
       <c r="C21">
-        <v>12.78312966422172</v>
+        <v>7.44017257601684</v>
       </c>
       <c r="D21">
-        <v>12.48753179816907</v>
+        <v>4.695784799346504</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.87642881798979</v>
+        <v>32.05250976214126</v>
       </c>
       <c r="G21">
-        <v>2.022154329075189</v>
+        <v>41.92729468988033</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>13.16329780397111</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.248554117160879</v>
       </c>
       <c r="K21">
-        <v>21.52266911084009</v>
+        <v>14.00996148805058</v>
       </c>
       <c r="L21">
-        <v>9.548675406438727</v>
+        <v>7.000786163440459</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.27030506349818</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>14.47894122748473</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.52276167740929</v>
+        <v>18.76662456722853</v>
       </c>
       <c r="C22">
-        <v>13.29590624785682</v>
+        <v>7.57816040777455</v>
       </c>
       <c r="D22">
-        <v>12.87143998985832</v>
+        <v>4.784352455943237</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>83.9456069660893</v>
+        <v>32.4351109531146</v>
       </c>
       <c r="G22">
-        <v>2.008803572207165</v>
+        <v>42.55252819461258</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>13.20492715598369</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.214987496310966</v>
       </c>
       <c r="K22">
-        <v>22.48048792513199</v>
+        <v>14.52983241846753</v>
       </c>
       <c r="L22">
-        <v>9.83048191712825</v>
+        <v>7.06852509251978</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.51777145700726</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>14.31065711309715</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.87655830874</v>
+        <v>18.44920692513571</v>
       </c>
       <c r="C23">
-        <v>13.02213947552503</v>
+        <v>7.504746533196635</v>
       </c>
       <c r="D23">
-        <v>12.66638002361151</v>
+        <v>4.737155631004004</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.30934261315484</v>
+        <v>32.2291741587964</v>
       </c>
       <c r="G23">
-        <v>2.015952198276083</v>
+        <v>42.21641138336603</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>13.18194594709656</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.23281976436772</v>
       </c>
       <c r="K23">
-        <v>21.97029326347544</v>
+        <v>14.25427175932722</v>
       </c>
       <c r="L23">
-        <v>9.679684123428425</v>
+        <v>7.032207149830075</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.38578725967919</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>14.40024138174284</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.39784024892272</v>
+        <v>17.21238843055554</v>
       </c>
       <c r="C24">
-        <v>11.98442711321359</v>
+        <v>7.221609113254586</v>
       </c>
       <c r="D24">
-        <v>11.89194062537</v>
+        <v>4.55691308109846</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.06277342145735</v>
+        <v>31.4870226290648</v>
       </c>
       <c r="G24">
-        <v>2.042606735802303</v>
+        <v>40.99624368333219</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>13.11128773690429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.302189823120674</v>
       </c>
       <c r="K24">
-        <v>20.01175694553626</v>
+        <v>13.16845954086058</v>
       </c>
       <c r="L24">
-        <v>9.116417518236593</v>
+        <v>6.898298136183851</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.88417685198232</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>14.74469446571561</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.63205255232773</v>
+        <v>15.80662935809515</v>
       </c>
       <c r="C25">
-        <v>10.84804906065937</v>
+        <v>6.905545359487722</v>
       </c>
       <c r="D25">
-        <v>11.05433683721717</v>
+        <v>4.360140674607646</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.16957511153252</v>
+        <v>30.76514282871461</v>
       </c>
       <c r="G25">
-        <v>2.070940519469921</v>
+        <v>39.79099193449775</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>13.06769522385192</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.381012543315594</v>
       </c>
       <c r="K25">
-        <v>17.82078227916513</v>
+        <v>11.90508810372548</v>
       </c>
       <c r="L25">
-        <v>8.521992820254772</v>
+        <v>6.761811904048272</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.34155519458927</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>15.12772728836378</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.71349753596153</v>
+        <v>16.9518374939988</v>
       </c>
       <c r="C2">
-        <v>6.664008583937639</v>
+        <v>7.310502714159211</v>
       </c>
       <c r="D2">
-        <v>4.214161458030671</v>
+        <v>7.15717425555001</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.29878225923928</v>
+        <v>43.95629878570092</v>
       </c>
       <c r="G2">
-        <v>38.9964221041011</v>
+        <v>53.02591298662058</v>
       </c>
       <c r="H2">
-        <v>13.0613173449352</v>
+        <v>20.42477573345007</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.442576919184035</v>
+        <v>10.91876868098595</v>
       </c>
       <c r="K2">
-        <v>10.98549517503671</v>
+        <v>12.93339559677725</v>
       </c>
       <c r="L2">
-        <v>6.668312522513076</v>
+        <v>11.389587354356</v>
       </c>
       <c r="M2">
-        <v>10.94311626771529</v>
+        <v>17.11304594603876</v>
       </c>
       <c r="N2">
-        <v>15.42016441627769</v>
+        <v>23.49642253661797</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.93921887838363</v>
+        <v>16.82118491008674</v>
       </c>
       <c r="C3">
-        <v>6.495083604480426</v>
+        <v>7.254373317559877</v>
       </c>
       <c r="D3">
-        <v>4.115079793074798</v>
+        <v>7.154887667678968</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.02193836566897</v>
+        <v>44.01406064084343</v>
       </c>
       <c r="G3">
-        <v>38.51427936852849</v>
+        <v>53.07293093642004</v>
       </c>
       <c r="H3">
-        <v>13.07189316491372</v>
+        <v>20.46839479683171</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.486544919271227</v>
+        <v>10.93646102320808</v>
       </c>
       <c r="K3">
-        <v>10.4040845548936</v>
+        <v>12.83854812474575</v>
       </c>
       <c r="L3">
-        <v>6.609379558997122</v>
+        <v>11.40136862263742</v>
       </c>
       <c r="M3">
-        <v>10.67517915005339</v>
+        <v>17.10670021546743</v>
       </c>
       <c r="N3">
-        <v>15.62512126642151</v>
+        <v>23.55762513097128</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.44859209638197</v>
+        <v>16.74416312562985</v>
       </c>
       <c r="C4">
-        <v>6.38889958806491</v>
+        <v>7.219025625961913</v>
       </c>
       <c r="D4">
-        <v>4.05436476523522</v>
+        <v>7.154281768719701</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.87075552134808</v>
+        <v>44.05742211633562</v>
       </c>
       <c r="G4">
-        <v>38.24538835445031</v>
+        <v>53.11296171954631</v>
       </c>
       <c r="H4">
-        <v>13.08536371975878</v>
+        <v>20.49800635360531</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.514663372752372</v>
+        <v>10.94795671699744</v>
       </c>
       <c r="K4">
-        <v>10.0353410996953</v>
+        <v>12.78267821209051</v>
       </c>
       <c r="L4">
-        <v>6.575399830705382</v>
+        <v>11.40986157194969</v>
       </c>
       <c r="M4">
-        <v>10.51220944078329</v>
+        <v>17.10532315283803</v>
       </c>
       <c r="N4">
-        <v>15.75439528772361</v>
+        <v>23.59708526932441</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.24507022508404</v>
+        <v>16.71361102525151</v>
       </c>
       <c r="C5">
-        <v>6.345030289688427</v>
+        <v>7.204402828759903</v>
       </c>
       <c r="D5">
-        <v>4.02968458029831</v>
+        <v>7.15423650389187</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.81378783515134</v>
+        <v>44.07707630547512</v>
       </c>
       <c r="G5">
-        <v>38.14253035064205</v>
+        <v>53.13207824122482</v>
       </c>
       <c r="H5">
-        <v>13.09255336024953</v>
+        <v>20.51078467470372</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.526406012085427</v>
+        <v>10.95280078888767</v>
       </c>
       <c r="K5">
-        <v>9.882294117157297</v>
+        <v>12.76052729585183</v>
       </c>
       <c r="L5">
-        <v>6.562109900963016</v>
+        <v>11.41363972109811</v>
       </c>
       <c r="M5">
-        <v>10.44626785201867</v>
+        <v>17.10539780143324</v>
       </c>
       <c r="N5">
-        <v>15.80795078648826</v>
+        <v>23.61363983958341</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.21106675648737</v>
+        <v>16.70858915699459</v>
       </c>
       <c r="C6">
-        <v>6.337710342037925</v>
+        <v>7.201961654745421</v>
       </c>
       <c r="D6">
-        <v>4.025591109073446</v>
+        <v>7.154241193473602</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.80460596263414</v>
+        <v>44.0804596513484</v>
       </c>
       <c r="G6">
-        <v>38.12585305159772</v>
+        <v>53.13542175044478</v>
       </c>
       <c r="H6">
-        <v>13.09384832138152</v>
+        <v>20.51294946751162</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.528373088742379</v>
+        <v>10.95361478840068</v>
       </c>
       <c r="K6">
-        <v>9.856718580546378</v>
+        <v>12.75688699358462</v>
       </c>
       <c r="L6">
-        <v>6.559936822629918</v>
+        <v>11.4142862541414</v>
       </c>
       <c r="M6">
-        <v>10.43534909836178</v>
+        <v>17.105448661413</v>
       </c>
       <c r="N6">
-        <v>15.81689687695155</v>
+        <v>23.61641738970416</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.44586150647549</v>
+        <v>16.74374766980256</v>
       </c>
       <c r="C7">
-        <v>6.388310344960122</v>
+        <v>7.218829296524421</v>
       </c>
       <c r="D7">
-        <v>4.054031628000546</v>
+        <v>7.154280340577063</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.86996856691462</v>
+        <v>44.05767914846599</v>
       </c>
       <c r="G7">
-        <v>38.2439741336234</v>
+        <v>53.11320818456746</v>
       </c>
       <c r="H7">
-        <v>13.08545386825447</v>
+        <v>20.49817580633611</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.51482058493946</v>
+        <v>10.94802139953072</v>
       </c>
       <c r="K7">
-        <v>10.03328805937458</v>
+        <v>12.78237695335006</v>
       </c>
       <c r="L7">
-        <v>6.575218339696113</v>
+        <v>11.40991124031762</v>
       </c>
       <c r="M7">
-        <v>10.5113181178296</v>
+        <v>17.10532158230668</v>
       </c>
       <c r="N7">
-        <v>15.75511399488654</v>
+        <v>23.59730660837285</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.44981429415314</v>
+        <v>16.906143106292</v>
       </c>
       <c r="C8">
-        <v>6.606286328022675</v>
+        <v>7.291335136469404</v>
       </c>
       <c r="D8">
-        <v>4.17999120432549</v>
+        <v>7.156220791717804</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.19937468429002</v>
+        <v>43.97457568877353</v>
       </c>
       <c r="G8">
-        <v>38.82448443824438</v>
+        <v>53.03980667221757</v>
       </c>
       <c r="H8">
-        <v>13.06348297552732</v>
+        <v>20.43922833552049</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.45750545908853</v>
+        <v>10.92473797914875</v>
       </c>
       <c r="K8">
-        <v>10.78755940337182</v>
+        <v>12.90021408940772</v>
       </c>
       <c r="L8">
-        <v>6.647536461450623</v>
+        <v>11.39338853617247</v>
       </c>
       <c r="M8">
-        <v>10.85045907853245</v>
+        <v>17.11033653741783</v>
       </c>
       <c r="N8">
-        <v>15.49012948226689</v>
+        <v>23.51713536604868</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.28947576453455</v>
+        <v>17.24858521739947</v>
       </c>
       <c r="C9">
-        <v>7.013411117254196</v>
+        <v>7.426335183165052</v>
       </c>
       <c r="D9">
-        <v>4.426660550779834</v>
+        <v>7.166314554260489</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.99801269726581</v>
+        <v>43.87430271960156</v>
       </c>
       <c r="G9">
-        <v>40.18237660399983</v>
+        <v>52.98452515719476</v>
       </c>
       <c r="H9">
-        <v>13.07822973449089</v>
+        <v>20.34608445585417</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.353919019346031</v>
+        <v>10.88407854756522</v>
       </c>
       <c r="K9">
-        <v>12.34315990751634</v>
+        <v>13.14908603196569</v>
       </c>
       <c r="L9">
-        <v>6.806710989976912</v>
+        <v>11.3709533580675</v>
       </c>
       <c r="M9">
-        <v>11.52434374988917</v>
+        <v>17.14004892379439</v>
       </c>
       <c r="N9">
-        <v>14.99712089554152</v>
+        <v>23.37479650671814</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.55384722732686</v>
+        <v>17.51284170944031</v>
       </c>
       <c r="C10">
-        <v>7.299308441547519</v>
+        <v>7.52092069518977</v>
       </c>
       <c r="D10">
-        <v>4.606059689760698</v>
+        <v>7.177502950456045</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.68216236643544</v>
+        <v>43.83889231431975</v>
       </c>
       <c r="G10">
-        <v>41.31859337864187</v>
+        <v>52.99803375420377</v>
       </c>
       <c r="H10">
-        <v>13.12778717596326</v>
+        <v>20.29134228090491</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.283050957387575</v>
+        <v>10.85722661134363</v>
       </c>
       <c r="K10">
-        <v>13.4703232375934</v>
+        <v>13.34140057073004</v>
       </c>
       <c r="L10">
-        <v>6.934025428883174</v>
+        <v>11.36051068019294</v>
       </c>
       <c r="M10">
-        <v>12.02055052837706</v>
+        <v>17.17383520995588</v>
       </c>
       <c r="N10">
-        <v>14.65032218660532</v>
+        <v>23.2792153099677</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.1089493003487</v>
+        <v>17.635373431472</v>
       </c>
       <c r="C11">
-        <v>7.426387559273169</v>
+        <v>7.562906131953513</v>
       </c>
       <c r="D11">
-        <v>4.686971584086393</v>
+        <v>7.183397798995291</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.01534854883498</v>
+        <v>43.83108982615311</v>
       </c>
       <c r="G11">
-        <v>41.86638209433868</v>
+        <v>53.01592478128612</v>
       </c>
       <c r="H11">
-        <v>13.15950833573864</v>
+        <v>20.26941153078736</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.251919261811296</v>
+        <v>10.84566110339523</v>
       </c>
       <c r="K11">
-        <v>13.957564752751</v>
+        <v>13.4306379980296</v>
       </c>
       <c r="L11">
-        <v>6.994143634270905</v>
+        <v>11.35706356251688</v>
       </c>
       <c r="M11">
-        <v>12.24572983401052</v>
+        <v>17.19176202618065</v>
       </c>
       <c r="N11">
-        <v>14.49573030780727</v>
+        <v>23.23767046915844</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.31620517521771</v>
+        <v>17.68206920367139</v>
       </c>
       <c r="C12">
-        <v>7.474075422853085</v>
+        <v>7.578651265885894</v>
       </c>
       <c r="D12">
-        <v>4.717488026029891</v>
+        <v>7.185744489017576</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.14473395676021</v>
+        <v>43.82932846515087</v>
       </c>
       <c r="G12">
-        <v>42.07831572249801</v>
+        <v>53.02438590939599</v>
       </c>
       <c r="H12">
-        <v>13.17290470869336</v>
+        <v>20.2615342039679</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.240287293115341</v>
+        <v>10.84137451880451</v>
       </c>
       <c r="K12">
-        <v>14.13846077181845</v>
+        <v>13.4646553986648</v>
       </c>
       <c r="L12">
-        <v>7.017220736838384</v>
+        <v>11.35594488713342</v>
       </c>
       <c r="M12">
-        <v>12.33086245076528</v>
+        <v>17.19891433462835</v>
       </c>
       <c r="N12">
-        <v>14.4376331184054</v>
+        <v>23.22221570849771</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.27170085047062</v>
+        <v>17.67199989119472</v>
       </c>
       <c r="C13">
-        <v>7.463824364424094</v>
+        <v>7.575267174530261</v>
       </c>
       <c r="D13">
-        <v>4.710921578580462</v>
+        <v>7.185234019733973</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.11672462125075</v>
+        <v>43.82965475820595</v>
       </c>
       <c r="G13">
-        <v>42.03247116814693</v>
+        <v>53.02248871918052</v>
       </c>
       <c r="H13">
-        <v>13.16995695066178</v>
+        <v>20.26321171959528</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.242785501435144</v>
+        <v>10.84229358040083</v>
       </c>
       <c r="K13">
-        <v>14.09966128031892</v>
+        <v>13.45731956125573</v>
       </c>
       <c r="L13">
-        <v>7.012236887786242</v>
+        <v>11.35617752377231</v>
       </c>
       <c r="M13">
-        <v>12.31253461773075</v>
+        <v>17.19735784160814</v>
       </c>
       <c r="N13">
-        <v>14.45012585557716</v>
+        <v>23.22553184674482</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.12605975525437</v>
+        <v>17.63920941360308</v>
       </c>
       <c r="C14">
-        <v>7.430319595011305</v>
+        <v>7.564204599421194</v>
       </c>
       <c r="D14">
-        <v>4.68948478015244</v>
+        <v>7.183588577002411</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.02592841212468</v>
+        <v>43.83092101129373</v>
       </c>
       <c r="G14">
-        <v>41.88372756536402</v>
+        <v>53.0165871104966</v>
       </c>
       <c r="H14">
-        <v>13.16058234562265</v>
+        <v>20.26875489312776</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.25095916030712</v>
+        <v>10.84530658139078</v>
       </c>
       <c r="K14">
-        <v>13.97251922809207</v>
+        <v>13.43343227319953</v>
       </c>
       <c r="L14">
-        <v>6.996035983841161</v>
+        <v>11.35696779159476</v>
       </c>
       <c r="M14">
-        <v>12.25273682289642</v>
+        <v>17.19234318295266</v>
       </c>
       <c r="N14">
-        <v>14.49094179859323</v>
+        <v>23.2363934432406</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.03646480955457</v>
+        <v>17.61916167220448</v>
       </c>
       <c r="C15">
-        <v>7.409740278181742</v>
+        <v>7.557408300816418</v>
       </c>
       <c r="D15">
-        <v>4.67633744973405</v>
+        <v>7.182595558117328</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.97073345377295</v>
+        <v>43.83185198477378</v>
       </c>
       <c r="G15">
-        <v>41.79320508410873</v>
+        <v>53.01319168988273</v>
       </c>
       <c r="H15">
-        <v>13.15502234257202</v>
+        <v>20.27220590385704</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.255986133654984</v>
+        <v>10.84716423436496</v>
       </c>
       <c r="K15">
-        <v>13.89417241889731</v>
+        <v>13.41882913460009</v>
       </c>
       <c r="L15">
-        <v>6.986152900768711</v>
+        <v>11.35747614115568</v>
       </c>
       <c r="M15">
-        <v>12.21608935374701</v>
+        <v>17.18931881797853</v>
       </c>
       <c r="N15">
-        <v>14.51600013319055</v>
+        <v>23.24308257818799</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.51716022671959</v>
+        <v>17.50487742245175</v>
       </c>
       <c r="C16">
-        <v>7.290943017931344</v>
+        <v>7.518155536698663</v>
       </c>
       <c r="D16">
-        <v>4.600755864163591</v>
+        <v>7.177133797030693</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.66083472522673</v>
+        <v>43.83956927926884</v>
       </c>
       <c r="G16">
-        <v>41.28342074747945</v>
+        <v>52.99710067440687</v>
       </c>
       <c r="H16">
-        <v>13.12590428066513</v>
+        <v>20.2928353104356</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.285107566739653</v>
+        <v>10.85799548250957</v>
       </c>
       <c r="K16">
-        <v>13.43797229798966</v>
+        <v>13.33560166873379</v>
       </c>
       <c r="L16">
-        <v>6.930140443898614</v>
+        <v>11.36076212091421</v>
       </c>
       <c r="M16">
-        <v>12.00581829487495</v>
+        <v>17.17271478008978</v>
       </c>
       <c r="N16">
-        <v>14.66048783016359</v>
+        <v>23.28196922855071</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.19339123294442</v>
+        <v>17.4353350783133</v>
       </c>
       <c r="C17">
-        <v>7.217296868193208</v>
+        <v>7.493805486265546</v>
       </c>
       <c r="D17">
-        <v>4.554193340966208</v>
+        <v>7.173988473647759</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.47638836578501</v>
+        <v>43.84643031715377</v>
       </c>
       <c r="G17">
-        <v>40.97864133603274</v>
+        <v>52.99023611707434</v>
       </c>
       <c r="H17">
-        <v>13.11043730031519</v>
+        <v>20.30625195969284</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.303254484754896</v>
+        <v>10.86480619805333</v>
       </c>
       <c r="K17">
-        <v>13.15161384711421</v>
+        <v>13.28497415079621</v>
       </c>
       <c r="L17">
-        <v>6.89633904383235</v>
+        <v>11.36311125712596</v>
       </c>
       <c r="M17">
-        <v>11.87663925402956</v>
+        <v>17.16318101342485</v>
       </c>
       <c r="N17">
-        <v>14.74992902019825</v>
+        <v>23.30631997745147</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.00528129059401</v>
+        <v>17.39555684162857</v>
       </c>
       <c r="C18">
-        <v>7.174657508197938</v>
+        <v>7.479702139216267</v>
       </c>
       <c r="D18">
-        <v>4.527347359087557</v>
+        <v>7.172255239734302</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.37236379485092</v>
+        <v>43.85115849481389</v>
       </c>
       <c r="G18">
-        <v>40.80624763510101</v>
+        <v>52.98739363337989</v>
       </c>
       <c r="H18">
-        <v>13.10240095974105</v>
+        <v>20.31424857608777</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.313796397661957</v>
+        <v>10.86878470514137</v>
       </c>
       <c r="K18">
-        <v>12.98450330180073</v>
+        <v>13.25602113471588</v>
       </c>
       <c r="L18">
-        <v>6.877104958052869</v>
+        <v>11.36458513856743</v>
       </c>
       <c r="M18">
-        <v>11.80229045093056</v>
+        <v>17.15793839635779</v>
       </c>
       <c r="N18">
-        <v>14.80167217299247</v>
+        <v>23.32050812112985</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.94126880150276</v>
+        <v>17.3821276672699</v>
       </c>
       <c r="C19">
-        <v>7.160172696042443</v>
+        <v>7.474910307018535</v>
       </c>
       <c r="D19">
-        <v>4.518247435254583</v>
+        <v>7.171681467772531</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.33749560271217</v>
+        <v>43.8528936894466</v>
       </c>
       <c r="G19">
-        <v>40.74837580151902</v>
+        <v>52.98662121146873</v>
       </c>
       <c r="H19">
-        <v>13.09982572986354</v>
+        <v>20.31700413232311</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.317383685676399</v>
+        <v>10.87014227600457</v>
       </c>
       <c r="K19">
-        <v>12.92750784437523</v>
+        <v>13.24624756821642</v>
       </c>
       <c r="L19">
-        <v>6.870628435393657</v>
+        <v>11.36510526877595</v>
       </c>
       <c r="M19">
-        <v>11.77711082145891</v>
+        <v>17.15620483534518</v>
       </c>
       <c r="N19">
-        <v>14.8192432418681</v>
+        <v>23.32534331160938</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.22805278429128</v>
+        <v>17.44271541392922</v>
       </c>
       <c r="C20">
-        <v>7.225165664697272</v>
+        <v>7.496407746248559</v>
       </c>
       <c r="D20">
-        <v>4.559156844163503</v>
+        <v>7.174315455698585</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.49580895105668</v>
+        <v>43.84561903145015</v>
       </c>
       <c r="G20">
-        <v>41.01078434041391</v>
+        <v>52.99085242864518</v>
       </c>
       <c r="H20">
-        <v>13.11199433160672</v>
+        <v>20.30479478461278</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.301311936966772</v>
+        <v>10.86407485835309</v>
       </c>
       <c r="K20">
-        <v>13.18234567255754</v>
+        <v>13.29034648867574</v>
       </c>
       <c r="L20">
-        <v>6.899915813173411</v>
+        <v>11.36284849170577</v>
       </c>
       <c r="M20">
-        <v>11.89039604715468</v>
+        <v>17.16417098893982</v>
       </c>
       <c r="N20">
-        <v>14.7403770035886</v>
+        <v>23.30370894478306</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.16891850916666</v>
+        <v>17.64883305135977</v>
       </c>
       <c r="C21">
-        <v>7.44017257601684</v>
+        <v>7.567458152565258</v>
       </c>
       <c r="D21">
-        <v>4.695784799346504</v>
+        <v>7.184068788619023</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.05250976214126</v>
+        <v>43.83051670858436</v>
       </c>
       <c r="G21">
-        <v>41.92729468988033</v>
+        <v>53.0182748223501</v>
       </c>
       <c r="H21">
-        <v>13.16329780397111</v>
+        <v>20.26711512984054</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.248554117160879</v>
+        <v>10.84441906841956</v>
       </c>
       <c r="K21">
-        <v>14.00996148805058</v>
+        <v>13.44044265455276</v>
       </c>
       <c r="L21">
-        <v>7.000786163440459</v>
+        <v>11.35673061062269</v>
       </c>
       <c r="M21">
-        <v>12.27030506349818</v>
+        <v>17.19380626854511</v>
       </c>
       <c r="N21">
-        <v>14.47894122748473</v>
+        <v>23.23319560889911</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.76662456722853</v>
+        <v>17.78524845171757</v>
       </c>
       <c r="C22">
-        <v>7.57816040777455</v>
+        <v>7.612995205348616</v>
       </c>
       <c r="D22">
-        <v>4.784352455943237</v>
+        <v>7.191109524720566</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.4351109531146</v>
+        <v>43.82760086013626</v>
       </c>
       <c r="G22">
-        <v>42.55252819461258</v>
+        <v>53.04602311949371</v>
       </c>
       <c r="H22">
-        <v>13.20492715598369</v>
+        <v>20.24498033584886</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.214987496310966</v>
+        <v>10.83211490218921</v>
       </c>
       <c r="K22">
-        <v>14.52983241846753</v>
+        <v>13.53983874266972</v>
       </c>
       <c r="L22">
-        <v>7.06852509251978</v>
+        <v>11.35381992439889</v>
       </c>
       <c r="M22">
-        <v>12.51777145700726</v>
+        <v>17.21529320900535</v>
       </c>
       <c r="N22">
-        <v>14.31065711309715</v>
+        <v>23.18872735272388</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.44920692513571</v>
+        <v>17.71229752922694</v>
       </c>
       <c r="C23">
-        <v>7.504746533196635</v>
+        <v>7.588774737148844</v>
       </c>
       <c r="D23">
-        <v>4.737155631004004</v>
+        <v>7.18729123920384</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.2291741587964</v>
+        <v>43.82852128588976</v>
       </c>
       <c r="G23">
-        <v>42.21641138336603</v>
+        <v>53.03031549816891</v>
       </c>
       <c r="H23">
-        <v>13.18194594709656</v>
+        <v>20.25656616057739</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.23281976436772</v>
+        <v>10.83863239798452</v>
       </c>
       <c r="K23">
-        <v>14.25427175932722</v>
+        <v>13.48667921385743</v>
       </c>
       <c r="L23">
-        <v>7.032207149830075</v>
+        <v>11.35527414263665</v>
       </c>
       <c r="M23">
-        <v>12.38578725967919</v>
+        <v>17.20363273797862</v>
       </c>
       <c r="N23">
-        <v>14.40024138174284</v>
+        <v>23.21231332004133</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.21238843055554</v>
+        <v>17.43937813027391</v>
       </c>
       <c r="C24">
-        <v>7.221609113254586</v>
+        <v>7.49523158872704</v>
       </c>
       <c r="D24">
-        <v>4.55691308109846</v>
+        <v>7.174167393240694</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.4870226290648</v>
+        <v>43.84598337249675</v>
       </c>
       <c r="G24">
-        <v>40.99624368333219</v>
+        <v>52.99057035490134</v>
       </c>
       <c r="H24">
-        <v>13.11128773690429</v>
+        <v>20.30545269127058</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.302189823120674</v>
+        <v>10.86440530096136</v>
       </c>
       <c r="K24">
-        <v>13.16845954086058</v>
+        <v>13.28791717478354</v>
       </c>
       <c r="L24">
-        <v>6.898298136183851</v>
+        <v>11.36296690373362</v>
       </c>
       <c r="M24">
-        <v>11.88417685198232</v>
+        <v>17.16372267789263</v>
       </c>
       <c r="N24">
-        <v>14.74469446571561</v>
+        <v>23.30488880515167</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.80662935809515</v>
+        <v>17.15357595195471</v>
       </c>
       <c r="C25">
-        <v>6.905545359487722</v>
+        <v>7.390606043746146</v>
       </c>
       <c r="D25">
-        <v>4.360140674607646</v>
+        <v>7.162916760861552</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.76514282871461</v>
+        <v>43.89471127669635</v>
       </c>
       <c r="G25">
-        <v>39.79099193449775</v>
+        <v>52.98997646602677</v>
       </c>
       <c r="H25">
-        <v>13.06769522385192</v>
+        <v>20.36887821391398</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.381012543315594</v>
+        <v>10.89454561379961</v>
       </c>
       <c r="K25">
-        <v>11.90508810372548</v>
+        <v>13.07999412765566</v>
       </c>
       <c r="L25">
-        <v>6.761811904048272</v>
+        <v>11.37595922740056</v>
       </c>
       <c r="M25">
-        <v>11.34155519458927</v>
+        <v>17.12989847731886</v>
       </c>
       <c r="N25">
-        <v>15.12772728836378</v>
+        <v>23.41171799879289</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.9518374939988</v>
+        <v>14.71349753596147</v>
       </c>
       <c r="C2">
-        <v>7.310502714159211</v>
+        <v>6.664008583937544</v>
       </c>
       <c r="D2">
-        <v>7.15717425555001</v>
+        <v>4.214161458030659</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>43.95629878570092</v>
+        <v>30.29878225923924</v>
       </c>
       <c r="G2">
-        <v>53.02591298662058</v>
+        <v>38.99642210410104</v>
       </c>
       <c r="H2">
-        <v>20.42477573345007</v>
+        <v>13.0613173449352</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.91876868098595</v>
+        <v>6.442576919184163</v>
       </c>
       <c r="K2">
-        <v>12.93339559677725</v>
+        <v>10.98549517503671</v>
       </c>
       <c r="L2">
-        <v>11.389587354356</v>
+        <v>6.668312522513147</v>
       </c>
       <c r="M2">
-        <v>17.11304594603876</v>
+        <v>10.9431162677153</v>
       </c>
       <c r="N2">
-        <v>23.49642253661797</v>
+        <v>15.42016441627769</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.82118491008674</v>
+        <v>13.93921887838361</v>
       </c>
       <c r="C3">
-        <v>7.254373317559877</v>
+        <v>6.495083604480315</v>
       </c>
       <c r="D3">
-        <v>7.154887667678968</v>
+        <v>4.115079793074783</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>44.01406064084343</v>
+        <v>30.02193836566898</v>
       </c>
       <c r="G3">
-        <v>53.07293093642004</v>
+        <v>38.51427936852862</v>
       </c>
       <c r="H3">
-        <v>20.46839479683171</v>
+        <v>13.07189316491374</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.93646102320808</v>
+        <v>6.486544919271195</v>
       </c>
       <c r="K3">
-        <v>12.83854812474575</v>
+        <v>10.40408455489359</v>
       </c>
       <c r="L3">
-        <v>11.40136862263742</v>
+        <v>6.609379558997121</v>
       </c>
       <c r="M3">
-        <v>17.10670021546743</v>
+        <v>10.67517915005338</v>
       </c>
       <c r="N3">
-        <v>23.55762513097128</v>
+        <v>15.62512126642152</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.74416312562985</v>
+        <v>13.44859209638188</v>
       </c>
       <c r="C4">
-        <v>7.219025625961913</v>
+        <v>6.388899588064799</v>
       </c>
       <c r="D4">
-        <v>7.154281768719701</v>
+        <v>4.054364765235158</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>44.05742211633562</v>
+        <v>29.87075552134792</v>
       </c>
       <c r="G4">
-        <v>53.11296171954631</v>
+        <v>38.24538835445032</v>
       </c>
       <c r="H4">
-        <v>20.49800635360531</v>
+        <v>13.08536371975867</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.94795671699744</v>
+        <v>6.514663372752372</v>
       </c>
       <c r="K4">
-        <v>12.78267821209051</v>
+        <v>10.0353410996953</v>
       </c>
       <c r="L4">
-        <v>11.40986157194969</v>
+        <v>6.575399830705354</v>
       </c>
       <c r="M4">
-        <v>17.10532315283803</v>
+        <v>10.51220944078322</v>
       </c>
       <c r="N4">
-        <v>23.59708526932441</v>
+        <v>15.75439528772361</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.71361102525151</v>
+        <v>13.24507022508405</v>
       </c>
       <c r="C5">
-        <v>7.204402828759903</v>
+        <v>6.345030289688081</v>
       </c>
       <c r="D5">
-        <v>7.15423650389187</v>
+        <v>4.029684580298141</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>44.07707630547512</v>
+        <v>29.81378783515142</v>
       </c>
       <c r="G5">
-        <v>53.13207824122482</v>
+        <v>38.14253035064223</v>
       </c>
       <c r="H5">
-        <v>20.51078467470372</v>
+        <v>13.09255336024965</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.95280078888767</v>
+        <v>6.526406012085362</v>
       </c>
       <c r="K5">
-        <v>12.76052729585183</v>
+        <v>9.882294117157333</v>
       </c>
       <c r="L5">
-        <v>11.41363972109811</v>
+        <v>6.562109900962956</v>
       </c>
       <c r="M5">
-        <v>17.10539780143324</v>
+        <v>10.44626785201864</v>
       </c>
       <c r="N5">
-        <v>23.61363983958341</v>
+        <v>15.8079507864883</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.70858915699459</v>
+        <v>13.21106675648737</v>
       </c>
       <c r="C6">
-        <v>7.201961654745421</v>
+        <v>6.33771034203769</v>
       </c>
       <c r="D6">
-        <v>7.154241193473602</v>
+        <v>4.025591109073491</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>44.0804596513484</v>
+        <v>29.80460596263423</v>
       </c>
       <c r="G6">
-        <v>53.13542175044478</v>
+        <v>38.12585305159778</v>
       </c>
       <c r="H6">
-        <v>20.51294946751162</v>
+        <v>13.09384832138157</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.95361478840068</v>
+        <v>6.528373088742477</v>
       </c>
       <c r="K6">
-        <v>12.75688699358462</v>
+        <v>9.856718580546406</v>
       </c>
       <c r="L6">
-        <v>11.4142862541414</v>
+        <v>6.559936822630029</v>
       </c>
       <c r="M6">
-        <v>17.105448661413</v>
+        <v>10.43534909836187</v>
       </c>
       <c r="N6">
-        <v>23.61641738970416</v>
+        <v>15.81689687695155</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.74374766980256</v>
+        <v>13.44586150647554</v>
       </c>
       <c r="C7">
-        <v>7.218829296524421</v>
+        <v>6.388310344960114</v>
       </c>
       <c r="D7">
-        <v>7.154280340577063</v>
+        <v>4.054031628000456</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>44.05767914846599</v>
+        <v>29.86996856691472</v>
       </c>
       <c r="G7">
-        <v>53.11320818456746</v>
+        <v>38.24397413362369</v>
       </c>
       <c r="H7">
-        <v>20.49817580633611</v>
+        <v>13.08545386825458</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.94802139953072</v>
+        <v>6.514820584939558</v>
       </c>
       <c r="K7">
-        <v>12.78237695335006</v>
+        <v>10.03328805937463</v>
       </c>
       <c r="L7">
-        <v>11.40991124031762</v>
+        <v>6.575218339696105</v>
       </c>
       <c r="M7">
-        <v>17.10532158230668</v>
+        <v>10.51131811782964</v>
       </c>
       <c r="N7">
-        <v>23.59730660837285</v>
+        <v>15.7551139948866</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.906143106292</v>
+        <v>14.44981429415308</v>
       </c>
       <c r="C8">
-        <v>7.291335136469404</v>
+        <v>6.60628632802244</v>
       </c>
       <c r="D8">
-        <v>7.156220791717804</v>
+        <v>4.179991204325407</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>43.97457568877353</v>
+        <v>30.19937468428978</v>
       </c>
       <c r="G8">
-        <v>53.03980667221757</v>
+        <v>38.82448443824418</v>
       </c>
       <c r="H8">
-        <v>20.43922833552049</v>
+        <v>13.06348297552721</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.92473797914875</v>
+        <v>6.45750545908846</v>
       </c>
       <c r="K8">
-        <v>12.90021408940772</v>
+        <v>10.78755940337181</v>
       </c>
       <c r="L8">
-        <v>11.39338853617247</v>
+        <v>6.647536461450594</v>
       </c>
       <c r="M8">
-        <v>17.11033653741783</v>
+        <v>10.85045907853238</v>
       </c>
       <c r="N8">
-        <v>23.51713536604868</v>
+        <v>15.49012948226676</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.24858521739947</v>
+        <v>16.28947576453451</v>
       </c>
       <c r="C9">
-        <v>7.426335183165052</v>
+        <v>7.013411117254324</v>
       </c>
       <c r="D9">
-        <v>7.166314554260489</v>
+        <v>4.426660550779891</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.87430271960156</v>
+        <v>30.99801269726552</v>
       </c>
       <c r="G9">
-        <v>52.98452515719476</v>
+        <v>40.18237660399946</v>
       </c>
       <c r="H9">
-        <v>20.34608445585417</v>
+        <v>13.07822973449079</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.88407854756522</v>
+        <v>6.353919019346095</v>
       </c>
       <c r="K9">
-        <v>13.14908603196569</v>
+        <v>12.34315990751639</v>
       </c>
       <c r="L9">
-        <v>11.3709533580675</v>
+        <v>6.806710989976937</v>
       </c>
       <c r="M9">
-        <v>17.14004892379439</v>
+        <v>11.52434374988914</v>
       </c>
       <c r="N9">
-        <v>23.37479650671814</v>
+        <v>14.99712089554142</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.51284170944031</v>
+        <v>17.55384722732683</v>
       </c>
       <c r="C10">
-        <v>7.52092069518977</v>
+        <v>7.299308441547299</v>
       </c>
       <c r="D10">
-        <v>7.177502950456045</v>
+        <v>4.606059689760691</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.83889231431975</v>
+        <v>31.68216236643541</v>
       </c>
       <c r="G10">
-        <v>52.99803375420377</v>
+        <v>41.31859337864191</v>
       </c>
       <c r="H10">
-        <v>20.29134228090491</v>
+        <v>13.12778717596322</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.85722661134363</v>
+        <v>6.283050957387445</v>
       </c>
       <c r="K10">
-        <v>13.34140057073004</v>
+        <v>13.4703232375934</v>
       </c>
       <c r="L10">
-        <v>11.36051068019294</v>
+        <v>6.934025428883155</v>
       </c>
       <c r="M10">
-        <v>17.17383520995588</v>
+        <v>12.02055052837703</v>
       </c>
       <c r="N10">
-        <v>23.2792153099677</v>
+        <v>14.65032218660529</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.635373431472</v>
+        <v>18.10894930034872</v>
       </c>
       <c r="C11">
-        <v>7.562906131953513</v>
+        <v>7.426387559273389</v>
       </c>
       <c r="D11">
-        <v>7.183397798995291</v>
+        <v>4.686971584086368</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>43.83108982615311</v>
+        <v>32.01534854883489</v>
       </c>
       <c r="G11">
-        <v>53.01592478128612</v>
+        <v>41.86638209433865</v>
       </c>
       <c r="H11">
-        <v>20.26941153078736</v>
+        <v>13.15950833573856</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.84566110339523</v>
+        <v>6.251919261811328</v>
       </c>
       <c r="K11">
-        <v>13.4306379980296</v>
+        <v>13.95756475275102</v>
       </c>
       <c r="L11">
-        <v>11.35706356251688</v>
+        <v>6.994143634270869</v>
       </c>
       <c r="M11">
-        <v>17.19176202618065</v>
+        <v>12.24572983401052</v>
       </c>
       <c r="N11">
-        <v>23.23767046915844</v>
+        <v>14.49573030780718</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.68206920367139</v>
+        <v>18.31620517521771</v>
       </c>
       <c r="C12">
-        <v>7.578651265885894</v>
+        <v>7.474075422853314</v>
       </c>
       <c r="D12">
-        <v>7.185744489017576</v>
+        <v>4.717488026029859</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>43.82932846515087</v>
+        <v>32.1447339567602</v>
       </c>
       <c r="G12">
-        <v>53.02438590939599</v>
+        <v>42.07831572249795</v>
       </c>
       <c r="H12">
-        <v>20.2615342039679</v>
+        <v>13.17290470869336</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.84137451880451</v>
+        <v>6.240287293115406</v>
       </c>
       <c r="K12">
-        <v>13.4646553986648</v>
+        <v>14.13846077181844</v>
       </c>
       <c r="L12">
-        <v>11.35594488713342</v>
+        <v>7.017220736838392</v>
       </c>
       <c r="M12">
-        <v>17.19891433462835</v>
+        <v>12.3308624507653</v>
       </c>
       <c r="N12">
-        <v>23.22221570849771</v>
+        <v>14.43763311840539</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.67199989119472</v>
+        <v>18.27170085047064</v>
       </c>
       <c r="C13">
-        <v>7.575267174530261</v>
+        <v>7.463824364424084</v>
       </c>
       <c r="D13">
-        <v>7.185234019733973</v>
+        <v>4.710921578580377</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>43.82965475820595</v>
+        <v>32.11672462125076</v>
       </c>
       <c r="G13">
-        <v>53.02248871918052</v>
+        <v>42.032471168147</v>
       </c>
       <c r="H13">
-        <v>20.26321171959528</v>
+        <v>13.16995695066179</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.84229358040083</v>
+        <v>6.242785501435113</v>
       </c>
       <c r="K13">
-        <v>13.45731956125573</v>
+        <v>14.09966128031892</v>
       </c>
       <c r="L13">
-        <v>11.35617752377231</v>
+        <v>7.012236887786173</v>
       </c>
       <c r="M13">
-        <v>17.19735784160814</v>
+        <v>12.31253461773073</v>
       </c>
       <c r="N13">
-        <v>23.22553184674482</v>
+        <v>14.45012585557716</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.63920941360308</v>
+        <v>18.12605975525437</v>
       </c>
       <c r="C14">
-        <v>7.564204599421194</v>
+        <v>7.430319595011295</v>
       </c>
       <c r="D14">
-        <v>7.183588577002411</v>
+        <v>4.689484780152472</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>43.83092101129373</v>
+        <v>32.02592841212473</v>
       </c>
       <c r="G14">
-        <v>53.0165871104966</v>
+        <v>41.88372756536406</v>
       </c>
       <c r="H14">
-        <v>20.26875489312776</v>
+        <v>13.16058234562263</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.84530658139078</v>
+        <v>6.250959160307149</v>
       </c>
       <c r="K14">
-        <v>13.43343227319953</v>
+        <v>13.97251922809203</v>
       </c>
       <c r="L14">
-        <v>11.35696779159476</v>
+        <v>6.996035983841212</v>
       </c>
       <c r="M14">
-        <v>17.19234318295266</v>
+        <v>12.25273682289644</v>
       </c>
       <c r="N14">
-        <v>23.2363934432406</v>
+        <v>14.49094179859326</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.61916167220448</v>
+        <v>18.03646480955454</v>
       </c>
       <c r="C15">
-        <v>7.557408300816418</v>
+        <v>7.409740278181642</v>
       </c>
       <c r="D15">
-        <v>7.182595558117328</v>
+        <v>4.676337449734082</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>43.83185198477378</v>
+        <v>31.97073345377287</v>
       </c>
       <c r="G15">
-        <v>53.01319168988273</v>
+        <v>41.79320508410861</v>
       </c>
       <c r="H15">
-        <v>20.27220590385704</v>
+        <v>13.15502234257202</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.84716423436496</v>
+        <v>6.255986133654917</v>
       </c>
       <c r="K15">
-        <v>13.41882913460009</v>
+        <v>13.89417241889733</v>
       </c>
       <c r="L15">
-        <v>11.35747614115568</v>
+        <v>6.986152900768684</v>
       </c>
       <c r="M15">
-        <v>17.18931881797853</v>
+        <v>12.21608935374696</v>
       </c>
       <c r="N15">
-        <v>23.24308257818799</v>
+        <v>14.51600013319048</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.50487742245175</v>
+        <v>17.51716022671956</v>
       </c>
       <c r="C16">
-        <v>7.518155536698663</v>
+        <v>7.290943017931098</v>
       </c>
       <c r="D16">
-        <v>7.177133797030693</v>
+        <v>4.600755864163538</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.83956927926884</v>
+        <v>31.66083472522648</v>
       </c>
       <c r="G16">
-        <v>52.99710067440687</v>
+        <v>41.28342074747926</v>
       </c>
       <c r="H16">
-        <v>20.2928353104356</v>
+        <v>13.12590428066503</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.85799548250957</v>
+        <v>6.285107566739652</v>
       </c>
       <c r="K16">
-        <v>13.33560166873379</v>
+        <v>13.43797229798969</v>
       </c>
       <c r="L16">
-        <v>11.36076212091421</v>
+        <v>6.930140443898609</v>
       </c>
       <c r="M16">
-        <v>17.17271478008978</v>
+        <v>12.00581829487491</v>
       </c>
       <c r="N16">
-        <v>23.28196922855071</v>
+        <v>14.66048783016339</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.4353350783133</v>
+        <v>17.19339123294445</v>
       </c>
       <c r="C17">
-        <v>7.493805486265546</v>
+        <v>7.217296868193094</v>
       </c>
       <c r="D17">
-        <v>7.173988473647759</v>
+        <v>4.554193340966235</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.84643031715377</v>
+        <v>31.47638836578539</v>
       </c>
       <c r="G17">
-        <v>52.99023611707434</v>
+        <v>40.97864133603321</v>
       </c>
       <c r="H17">
-        <v>20.30625195969284</v>
+        <v>13.11043730031533</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.86480619805333</v>
+        <v>6.303254484754864</v>
       </c>
       <c r="K17">
-        <v>13.28497415079621</v>
+        <v>13.15161384711413</v>
       </c>
       <c r="L17">
-        <v>11.36311125712596</v>
+        <v>6.8963390438324</v>
       </c>
       <c r="M17">
-        <v>17.16318101342485</v>
+        <v>11.87663925402962</v>
       </c>
       <c r="N17">
-        <v>23.30631997745147</v>
+        <v>14.74992902019844</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.39555684162857</v>
+        <v>17.00528129059402</v>
       </c>
       <c r="C18">
-        <v>7.479702139216267</v>
+        <v>7.174657508198054</v>
       </c>
       <c r="D18">
-        <v>7.172255239734302</v>
+        <v>4.527347359087502</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>43.85115849481389</v>
+        <v>31.37236379485097</v>
       </c>
       <c r="G18">
-        <v>52.98739363337989</v>
+        <v>40.8062476351011</v>
       </c>
       <c r="H18">
-        <v>20.31424857608777</v>
+        <v>13.1024009597411</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.86878470514137</v>
+        <v>6.313796397661991</v>
       </c>
       <c r="K18">
-        <v>13.25602113471588</v>
+        <v>12.98450330180072</v>
       </c>
       <c r="L18">
-        <v>11.36458513856743</v>
+        <v>6.877104958052832</v>
       </c>
       <c r="M18">
-        <v>17.15793839635779</v>
+        <v>11.80229045093056</v>
       </c>
       <c r="N18">
-        <v>23.32050812112985</v>
+        <v>14.80167217299251</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.3821276672699</v>
+        <v>16.94126880150278</v>
       </c>
       <c r="C19">
-        <v>7.474910307018535</v>
+        <v>7.160172696042433</v>
       </c>
       <c r="D19">
-        <v>7.171681467772531</v>
+        <v>4.518247435254589</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>43.8528936894466</v>
+        <v>31.33749560271226</v>
       </c>
       <c r="G19">
-        <v>52.98662121146873</v>
+        <v>40.7483758015191</v>
       </c>
       <c r="H19">
-        <v>20.31700413232311</v>
+        <v>13.09982572986365</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.87014227600457</v>
+        <v>6.31738368567643</v>
       </c>
       <c r="K19">
-        <v>13.24624756821642</v>
+        <v>12.92750784437526</v>
       </c>
       <c r="L19">
-        <v>11.36510526877595</v>
+        <v>6.870628435393653</v>
       </c>
       <c r="M19">
-        <v>17.15620483534518</v>
+        <v>11.77711082145893</v>
       </c>
       <c r="N19">
-        <v>23.32534331160938</v>
+        <v>14.81924324186814</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.44271541392922</v>
+        <v>17.22805278429127</v>
       </c>
       <c r="C20">
-        <v>7.496407746248559</v>
+        <v>7.225165664697027</v>
       </c>
       <c r="D20">
-        <v>7.174315455698585</v>
+        <v>4.559156844163524</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.84561903145015</v>
+        <v>31.49580895105668</v>
       </c>
       <c r="G20">
-        <v>52.99085242864518</v>
+        <v>41.01078434041391</v>
       </c>
       <c r="H20">
-        <v>20.30479478461278</v>
+        <v>13.11199433160672</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.86407485835309</v>
+        <v>6.301311936966772</v>
       </c>
       <c r="K20">
-        <v>13.29034648867574</v>
+        <v>13.18234567255754</v>
       </c>
       <c r="L20">
-        <v>11.36284849170577</v>
+        <v>6.899915813173485</v>
       </c>
       <c r="M20">
-        <v>17.16417098893982</v>
+        <v>11.89039604715469</v>
       </c>
       <c r="N20">
-        <v>23.30370894478306</v>
+        <v>14.7403770035886</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.64883305135977</v>
+        <v>18.16891850916666</v>
       </c>
       <c r="C21">
-        <v>7.567458152565258</v>
+        <v>7.440172576016627</v>
       </c>
       <c r="D21">
-        <v>7.184068788619023</v>
+        <v>4.69578479934651</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>43.83051670858436</v>
+        <v>32.05250976214109</v>
       </c>
       <c r="G21">
-        <v>53.0182748223501</v>
+        <v>41.92729468988014</v>
       </c>
       <c r="H21">
-        <v>20.26711512984054</v>
+        <v>13.16329780397099</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.84441906841956</v>
+        <v>6.248554117160815</v>
       </c>
       <c r="K21">
-        <v>13.44044265455276</v>
+        <v>14.00996148805064</v>
       </c>
       <c r="L21">
-        <v>11.35673061062269</v>
+        <v>7.000786163440479</v>
       </c>
       <c r="M21">
-        <v>17.19380626854511</v>
+        <v>12.27030506349813</v>
       </c>
       <c r="N21">
-        <v>23.23319560889911</v>
+        <v>14.47894122748457</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.78524845171757</v>
+        <v>18.7666245672285</v>
       </c>
       <c r="C22">
-        <v>7.612995205348616</v>
+        <v>7.578160407774212</v>
       </c>
       <c r="D22">
-        <v>7.191109524720566</v>
+        <v>4.784352455943243</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>43.82760086013626</v>
+        <v>32.4351109531145</v>
       </c>
       <c r="G22">
-        <v>53.04602311949371</v>
+        <v>42.55252819461244</v>
       </c>
       <c r="H22">
-        <v>20.24498033584886</v>
+        <v>13.20492715598368</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.83211490218921</v>
+        <v>6.214987496310932</v>
       </c>
       <c r="K22">
-        <v>13.53983874266972</v>
+        <v>14.52983241846752</v>
       </c>
       <c r="L22">
-        <v>11.35381992439889</v>
+        <v>7.068525092519791</v>
       </c>
       <c r="M22">
-        <v>17.21529320900535</v>
+        <v>12.51777145700726</v>
       </c>
       <c r="N22">
-        <v>23.18872735272388</v>
+        <v>14.31065711309704</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.71229752922694</v>
+        <v>18.44920692513573</v>
       </c>
       <c r="C23">
-        <v>7.588774737148844</v>
+        <v>7.504746533196966</v>
       </c>
       <c r="D23">
-        <v>7.18729123920384</v>
+        <v>4.73715563100408</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>43.82852128588976</v>
+        <v>32.22917415879643</v>
       </c>
       <c r="G23">
-        <v>53.03031549816891</v>
+        <v>42.21641138336607</v>
       </c>
       <c r="H23">
-        <v>20.25656616057739</v>
+        <v>13.18194594709657</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.83863239798452</v>
+        <v>6.232819764367783</v>
       </c>
       <c r="K23">
-        <v>13.48667921385743</v>
+        <v>14.25427175932726</v>
       </c>
       <c r="L23">
-        <v>11.35527414263665</v>
+        <v>7.032207149830111</v>
       </c>
       <c r="M23">
-        <v>17.20363273797862</v>
+        <v>12.3857872596792</v>
       </c>
       <c r="N23">
-        <v>23.21231332004133</v>
+        <v>14.40024138174294</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.43937813027391</v>
+        <v>17.21238843055551</v>
       </c>
       <c r="C24">
-        <v>7.49523158872704</v>
+        <v>7.22160911325483</v>
       </c>
       <c r="D24">
-        <v>7.174167393240694</v>
+        <v>4.556913081098495</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.84598337249675</v>
+        <v>31.48702262906462</v>
       </c>
       <c r="G24">
-        <v>52.99057035490134</v>
+        <v>40.99624368333185</v>
       </c>
       <c r="H24">
-        <v>20.30545269127058</v>
+        <v>13.1112877369042</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.86440530096136</v>
+        <v>6.302189823120741</v>
       </c>
       <c r="K24">
-        <v>13.28791717478354</v>
+        <v>13.16845954086066</v>
       </c>
       <c r="L24">
-        <v>11.36296690373362</v>
+        <v>6.898298136183881</v>
       </c>
       <c r="M24">
-        <v>17.16372267789263</v>
+        <v>11.88417685198231</v>
       </c>
       <c r="N24">
-        <v>23.30488880515167</v>
+        <v>14.74469446571554</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.15357595195471</v>
+        <v>15.80662935809515</v>
       </c>
       <c r="C25">
-        <v>7.390606043746146</v>
+        <v>6.905545359487608</v>
       </c>
       <c r="D25">
-        <v>7.162916760861552</v>
+        <v>4.360140674607519</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.89471127669635</v>
+        <v>30.76514282871461</v>
       </c>
       <c r="G25">
-        <v>52.98997646602677</v>
+        <v>39.79099193449787</v>
       </c>
       <c r="H25">
-        <v>20.36887821391398</v>
+        <v>13.06769522385191</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.89454561379961</v>
+        <v>6.381012543315594</v>
       </c>
       <c r="K25">
-        <v>13.07999412765566</v>
+        <v>11.90508810372545</v>
       </c>
       <c r="L25">
-        <v>11.37595922740056</v>
+        <v>6.761811904048268</v>
       </c>
       <c r="M25">
-        <v>17.12989847731886</v>
+        <v>11.34155519458927</v>
       </c>
       <c r="N25">
-        <v>23.41171799879289</v>
+        <v>15.12772728836378</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.71349753596147</v>
+        <v>13.93799972534076</v>
       </c>
       <c r="C2">
-        <v>6.664008583937544</v>
+        <v>7.554672597775903</v>
       </c>
       <c r="D2">
-        <v>4.214161458030659</v>
+        <v>5.174834532387552</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.29878225923924</v>
+        <v>24.99777408527128</v>
       </c>
       <c r="G2">
-        <v>38.99642210410104</v>
+        <v>34.77862626481858</v>
       </c>
       <c r="H2">
-        <v>13.0613173449352</v>
+        <v>2.674143357850994</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.549849008426084</v>
       </c>
       <c r="J2">
-        <v>6.442576919184163</v>
+        <v>11.77566722504413</v>
       </c>
       <c r="K2">
-        <v>10.98549517503671</v>
+        <v>19.87528229438952</v>
       </c>
       <c r="L2">
-        <v>6.668312522513147</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>10.9431162677153</v>
+        <v>11.54931311580042</v>
       </c>
       <c r="N2">
-        <v>15.42016441627769</v>
+        <v>8.3612425003477</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.93921887838361</v>
+        <v>13.0185365347275</v>
       </c>
       <c r="C3">
-        <v>6.495083604480315</v>
+        <v>7.261654250296839</v>
       </c>
       <c r="D3">
-        <v>4.115079793074783</v>
+        <v>5.096953336710337</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.02193836566898</v>
+        <v>24.37427387336053</v>
       </c>
       <c r="G3">
-        <v>38.51427936852862</v>
+        <v>33.85519431482053</v>
       </c>
       <c r="H3">
-        <v>13.07189316491374</v>
+        <v>2.890281093198587</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.736011654013268</v>
       </c>
       <c r="J3">
-        <v>6.486544919271195</v>
+        <v>11.68624548084176</v>
       </c>
       <c r="K3">
-        <v>10.40408455489359</v>
+        <v>19.66069304215565</v>
       </c>
       <c r="L3">
-        <v>6.609379558997121</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10.67517915005338</v>
+        <v>10.88734564829909</v>
       </c>
       <c r="N3">
-        <v>15.62512126642152</v>
+        <v>7.970328289136954</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.44859209638188</v>
+        <v>12.41904734439819</v>
       </c>
       <c r="C4">
-        <v>6.388899588064799</v>
+        <v>7.076729355199218</v>
       </c>
       <c r="D4">
-        <v>4.054364765235158</v>
+        <v>5.047733010918706</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.87075552134792</v>
+        <v>23.98905651567204</v>
       </c>
       <c r="G4">
-        <v>38.24538835445032</v>
+        <v>33.28123122590925</v>
       </c>
       <c r="H4">
-        <v>13.08536371975867</v>
+        <v>3.027806114257694</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.854984998878662</v>
       </c>
       <c r="J4">
-        <v>6.514663372752372</v>
+        <v>11.63294602022943</v>
       </c>
       <c r="K4">
-        <v>10.0353410996953</v>
+        <v>19.5284822861664</v>
       </c>
       <c r="L4">
-        <v>6.575399830705354</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>10.51220944078322</v>
+        <v>10.4599846076443</v>
       </c>
       <c r="N4">
-        <v>15.75439528772361</v>
+        <v>7.720109739222686</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.24507022508405</v>
+        <v>12.16364885423175</v>
       </c>
       <c r="C5">
-        <v>6.345030289688081</v>
+        <v>7.003582560162613</v>
       </c>
       <c r="D5">
-        <v>4.029684580298141</v>
+        <v>5.028437472501205</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.81378783515142</v>
+        <v>23.81631753989649</v>
       </c>
       <c r="G5">
-        <v>38.14253035064223</v>
+        <v>33.01847804810534</v>
       </c>
       <c r="H5">
-        <v>13.09255336024965</v>
+        <v>3.085469765013334</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.907248596568337</v>
       </c>
       <c r="J5">
-        <v>6.526406012085362</v>
+        <v>11.60656923230136</v>
       </c>
       <c r="K5">
-        <v>9.882294117157333</v>
+        <v>19.46264290116529</v>
       </c>
       <c r="L5">
-        <v>6.562109900962956</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>10.44626785201864</v>
+        <v>10.28217049020913</v>
       </c>
       <c r="N5">
-        <v>15.8079507864883</v>
+        <v>7.615411362711059</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.21106675648737</v>
+        <v>12.11791715298137</v>
       </c>
       <c r="C6">
-        <v>6.33771034203769</v>
+        <v>6.995643179558182</v>
       </c>
       <c r="D6">
-        <v>4.025591109073491</v>
+        <v>5.026583158678152</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.80460596263423</v>
+        <v>23.76885768175076</v>
       </c>
       <c r="G6">
-        <v>38.12585305159778</v>
+        <v>32.9412982588323</v>
       </c>
       <c r="H6">
-        <v>13.09384832138157</v>
+        <v>3.095597445423825</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.919312235979112</v>
       </c>
       <c r="J6">
-        <v>6.528373088742477</v>
+        <v>11.59602789055887</v>
       </c>
       <c r="K6">
-        <v>9.856718580546406</v>
+        <v>19.437193840681</v>
       </c>
       <c r="L6">
-        <v>6.559936822630029</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>10.43534909836187</v>
+        <v>10.25422651023203</v>
       </c>
       <c r="N6">
-        <v>15.81689687695155</v>
+        <v>7.597582276908624</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.44586150647554</v>
+        <v>12.40820064225679</v>
       </c>
       <c r="C7">
-        <v>6.388310344960114</v>
+        <v>7.087311308334039</v>
       </c>
       <c r="D7">
-        <v>4.054031628000456</v>
+        <v>5.051242635347371</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.86996856691472</v>
+        <v>23.93595750598935</v>
       </c>
       <c r="G7">
-        <v>38.24397413362369</v>
+        <v>33.18713515681331</v>
       </c>
       <c r="H7">
-        <v>13.08545386825458</v>
+        <v>3.029862896703979</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.864471404269056</v>
       </c>
       <c r="J7">
-        <v>6.514820584939558</v>
+        <v>11.61576452492125</v>
       </c>
       <c r="K7">
-        <v>10.03328805937463</v>
+        <v>19.48813800584589</v>
       </c>
       <c r="L7">
-        <v>6.575218339696105</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>10.51131811782964</v>
+        <v>10.46268732078858</v>
       </c>
       <c r="N7">
-        <v>15.7551139948866</v>
+        <v>7.717921088980375</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.44981429415308</v>
+        <v>13.6191014595426</v>
       </c>
       <c r="C8">
-        <v>6.60628632802244</v>
+        <v>7.469460877025661</v>
       </c>
       <c r="D8">
-        <v>4.179991204325407</v>
+        <v>5.153379784954358</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.19937468428978</v>
+        <v>24.71840366618584</v>
       </c>
       <c r="G8">
-        <v>38.82448443824418</v>
+        <v>34.3460921262749</v>
       </c>
       <c r="H8">
-        <v>13.06348297552721</v>
+        <v>2.749287140100856</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.624317945052483</v>
       </c>
       <c r="J8">
-        <v>6.45750545908846</v>
+        <v>11.72259110570203</v>
       </c>
       <c r="K8">
-        <v>10.78755940337181</v>
+        <v>19.75011085788068</v>
       </c>
       <c r="L8">
-        <v>6.647536461450594</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>10.85045907853238</v>
+        <v>11.33174114715066</v>
       </c>
       <c r="N8">
-        <v>15.49012948226676</v>
+        <v>8.227663278688361</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.28947576453451</v>
+        <v>15.73005560310596</v>
       </c>
       <c r="C9">
-        <v>7.013411117254324</v>
+        <v>8.159877868320486</v>
       </c>
       <c r="D9">
-        <v>4.426660550779891</v>
+        <v>5.335535952383162</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.99801269726552</v>
+        <v>26.31341040292375</v>
       </c>
       <c r="G9">
-        <v>40.18237660399946</v>
+        <v>36.70739176463319</v>
       </c>
       <c r="H9">
-        <v>13.07822973449079</v>
+        <v>2.234298941472006</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.175298253162536</v>
       </c>
       <c r="J9">
-        <v>6.353919019346095</v>
+        <v>11.97433911147659</v>
       </c>
       <c r="K9">
-        <v>12.34315990751639</v>
+        <v>20.32815658364623</v>
       </c>
       <c r="L9">
-        <v>6.806710989976937</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>11.52434374988914</v>
+        <v>12.8603337397177</v>
       </c>
       <c r="N9">
-        <v>14.99712089554142</v>
+        <v>9.144978568622992</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.55384722732683</v>
+        <v>17.08450200536311</v>
       </c>
       <c r="C10">
-        <v>7.299308441547299</v>
+        <v>8.701439835320354</v>
       </c>
       <c r="D10">
-        <v>4.606059689760691</v>
+        <v>5.484988564895763</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.68216236643541</v>
+        <v>27.22361565370463</v>
       </c>
       <c r="G10">
-        <v>41.31859337864191</v>
+        <v>37.96943334495805</v>
       </c>
       <c r="H10">
-        <v>13.12778717596322</v>
+        <v>1.913594120922675</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.879933153649637</v>
       </c>
       <c r="J10">
-        <v>6.283050957387445</v>
+        <v>12.08352108926421</v>
       </c>
       <c r="K10">
-        <v>13.4703232375934</v>
+        <v>20.55435888841908</v>
       </c>
       <c r="L10">
-        <v>6.934025428883155</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>12.02055052837703</v>
+        <v>13.90171488451005</v>
       </c>
       <c r="N10">
-        <v>14.65032218660529</v>
+        <v>9.576844227923505</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.10894930034872</v>
+        <v>17.41834080565394</v>
       </c>
       <c r="C11">
-        <v>7.426387559273389</v>
+        <v>9.482026534675343</v>
       </c>
       <c r="D11">
-        <v>4.686971584086368</v>
+        <v>5.763521634284761</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.01534854883489</v>
+        <v>25.71887580763277</v>
       </c>
       <c r="G11">
-        <v>41.86638209433865</v>
+        <v>35.14681519711917</v>
       </c>
       <c r="H11">
-        <v>13.15950833573856</v>
+        <v>2.885558695629505</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.827072909056863</v>
       </c>
       <c r="J11">
-        <v>6.251919261811328</v>
+        <v>11.46126961085932</v>
       </c>
       <c r="K11">
-        <v>13.95756475275102</v>
+        <v>19.10626484563324</v>
       </c>
       <c r="L11">
-        <v>6.994143634270869</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>12.24572983401052</v>
+        <v>14.52752842983209</v>
       </c>
       <c r="N11">
-        <v>14.49573030780718</v>
+        <v>8.186546954929195</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.31620517521771</v>
+        <v>17.43396336927144</v>
       </c>
       <c r="C12">
-        <v>7.474075422853314</v>
+        <v>10.09451326349425</v>
       </c>
       <c r="D12">
-        <v>4.717488026029859</v>
+        <v>5.992777029200722</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.1447339567602</v>
+        <v>24.31064401326764</v>
       </c>
       <c r="G12">
-        <v>42.07831572249795</v>
+        <v>32.60145247287554</v>
       </c>
       <c r="H12">
-        <v>13.17290470869336</v>
+        <v>4.246118264209727</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.819991585489069</v>
       </c>
       <c r="J12">
-        <v>6.240287293115406</v>
+        <v>10.94091318991386</v>
       </c>
       <c r="K12">
-        <v>14.13846077181844</v>
+        <v>17.92324554436215</v>
       </c>
       <c r="L12">
-        <v>7.017220736838392</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>12.3308624507653</v>
+        <v>14.8424186146847</v>
       </c>
       <c r="N12">
-        <v>14.43763311840539</v>
+        <v>6.987167296347085</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.27170085047064</v>
+        <v>17.19786738452872</v>
       </c>
       <c r="C13">
-        <v>7.463824364424084</v>
+        <v>10.62805318751559</v>
       </c>
       <c r="D13">
-        <v>4.710921578580377</v>
+        <v>6.200222363171506</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.11672462125076</v>
+        <v>22.79725317136899</v>
       </c>
       <c r="G13">
-        <v>42.032471168147</v>
+        <v>29.95103735392147</v>
       </c>
       <c r="H13">
-        <v>13.16995695066179</v>
+        <v>5.661061503366693</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.863160428467919</v>
       </c>
       <c r="J13">
-        <v>6.242785501435113</v>
+        <v>10.44218621430348</v>
       </c>
       <c r="K13">
-        <v>14.09966128031892</v>
+        <v>16.82043616005782</v>
       </c>
       <c r="L13">
-        <v>7.012236887786173</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>12.31253461773073</v>
+        <v>14.95224944128316</v>
       </c>
       <c r="N13">
-        <v>14.45012585557716</v>
+        <v>5.880462067105731</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.12605975525437</v>
+        <v>16.91386962899808</v>
       </c>
       <c r="C14">
-        <v>7.430319595011295</v>
+        <v>10.98007440907446</v>
       </c>
       <c r="D14">
-        <v>4.689484780152472</v>
+        <v>6.339532066911266</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.02592841212473</v>
+        <v>21.67160187181011</v>
       </c>
       <c r="G14">
-        <v>41.88372756536406</v>
+        <v>28.02023671922544</v>
       </c>
       <c r="H14">
-        <v>13.16058234562263</v>
+        <v>6.666828457713509</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.918620548069667</v>
       </c>
       <c r="J14">
-        <v>6.250959160307149</v>
+        <v>10.10267987506309</v>
       </c>
       <c r="K14">
-        <v>13.97251922809203</v>
+        <v>16.09289786351441</v>
       </c>
       <c r="L14">
-        <v>6.996035983841212</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>12.25273682289644</v>
+        <v>14.93952367190728</v>
       </c>
       <c r="N14">
-        <v>14.49094179859326</v>
+        <v>5.199954637704886</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.03646480955454</v>
+        <v>16.78723547360678</v>
       </c>
       <c r="C15">
-        <v>7.409740278181642</v>
+        <v>11.04785780855345</v>
       </c>
       <c r="D15">
-        <v>4.676337449734082</v>
+        <v>6.367557248887828</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.97073345377287</v>
+        <v>21.35965629961353</v>
       </c>
       <c r="G15">
-        <v>41.79320508410861</v>
+        <v>27.50085741690368</v>
       </c>
       <c r="H15">
-        <v>13.15502234257202</v>
+        <v>6.902098524630339</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.948164756158233</v>
       </c>
       <c r="J15">
-        <v>6.255986133654917</v>
+        <v>10.01966022575612</v>
       </c>
       <c r="K15">
-        <v>13.89417241889733</v>
+        <v>15.92007338005567</v>
       </c>
       <c r="L15">
-        <v>6.986152900768684</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>12.21608935374696</v>
+        <v>14.89366048218958</v>
       </c>
       <c r="N15">
-        <v>14.51600013319048</v>
+        <v>5.049304135972664</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.51716022671956</v>
+        <v>16.26021378637349</v>
       </c>
       <c r="C16">
-        <v>7.290943017931098</v>
+        <v>10.74943116738126</v>
       </c>
       <c r="D16">
-        <v>4.600755864163538</v>
+        <v>6.26407680757885</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.66083472522648</v>
+        <v>21.19210870599547</v>
       </c>
       <c r="G16">
-        <v>41.28342074747926</v>
+        <v>27.35271932963027</v>
       </c>
       <c r="H16">
-        <v>13.12590428066503</v>
+        <v>6.714780859445424</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.070999454625497</v>
       </c>
       <c r="J16">
-        <v>6.285107566739652</v>
+        <v>10.06200069547737</v>
       </c>
       <c r="K16">
-        <v>13.43797229798969</v>
+        <v>16.02433188883823</v>
       </c>
       <c r="L16">
-        <v>6.930140443898609</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>12.00581829487491</v>
+        <v>14.45670728686883</v>
       </c>
       <c r="N16">
-        <v>14.66048783016339</v>
+        <v>5.029889983162589</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.19339123294445</v>
+        <v>16.0054709240767</v>
       </c>
       <c r="C17">
-        <v>7.217296868193094</v>
+        <v>10.31618385096323</v>
       </c>
       <c r="D17">
-        <v>4.554193340966235</v>
+        <v>6.107176981873109</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.47638836578539</v>
+        <v>21.67405387021619</v>
       </c>
       <c r="G17">
-        <v>40.97864133603321</v>
+        <v>28.28086857969063</v>
       </c>
       <c r="H17">
-        <v>13.11043730031533</v>
+        <v>6.008943505180443</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.136865353949919</v>
       </c>
       <c r="J17">
-        <v>6.303254484754864</v>
+        <v>10.27293197100265</v>
       </c>
       <c r="K17">
-        <v>13.15161384711413</v>
+        <v>16.47981003985126</v>
       </c>
       <c r="L17">
-        <v>6.8963390438324</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>11.87663925402962</v>
+        <v>14.1210976496819</v>
       </c>
       <c r="N17">
-        <v>14.74992902019844</v>
+        <v>5.357727640084988</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.00528129059402</v>
+        <v>15.9702232822965</v>
       </c>
       <c r="C18">
-        <v>7.174657508198054</v>
+        <v>9.731018649178209</v>
       </c>
       <c r="D18">
-        <v>4.527347359087502</v>
+        <v>5.893248955529637</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.37236379485097</v>
+        <v>22.8070323122953</v>
       </c>
       <c r="G18">
-        <v>40.8062476351011</v>
+        <v>30.31605725373542</v>
       </c>
       <c r="H18">
-        <v>13.1024009597411</v>
+        <v>4.808619639363776</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.147517638997023</v>
       </c>
       <c r="J18">
-        <v>6.313796397661991</v>
+        <v>10.6714478865347</v>
       </c>
       <c r="K18">
-        <v>12.98450330180072</v>
+        <v>17.3504299113353</v>
       </c>
       <c r="L18">
-        <v>6.877104958052832</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>11.80229045093056</v>
+        <v>13.83805318878129</v>
       </c>
       <c r="N18">
-        <v>14.80167217299251</v>
+        <v>6.145411015955053</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.94126880150278</v>
+        <v>16.10492051839561</v>
       </c>
       <c r="C19">
-        <v>7.160172696042433</v>
+        <v>9.153679278331946</v>
       </c>
       <c r="D19">
-        <v>4.518247435254589</v>
+        <v>5.680916443210776</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.33749560271226</v>
+        <v>24.29741171286221</v>
       </c>
       <c r="G19">
-        <v>40.7483758015191</v>
+        <v>32.95932728984791</v>
       </c>
       <c r="H19">
-        <v>13.09982572986365</v>
+        <v>3.412875005182704</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.12706955278837</v>
       </c>
       <c r="J19">
-        <v>6.31738368567643</v>
+        <v>11.17678526507077</v>
       </c>
       <c r="K19">
-        <v>12.92750784437526</v>
+        <v>18.48312875373019</v>
       </c>
       <c r="L19">
-        <v>6.870628435393653</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>11.77711082145893</v>
+        <v>13.63325107549231</v>
       </c>
       <c r="N19">
-        <v>14.81924324186814</v>
+        <v>7.348333001098134</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.22805278429127</v>
+        <v>16.72035290713544</v>
       </c>
       <c r="C20">
-        <v>7.225165664697027</v>
+        <v>8.596227972901708</v>
       </c>
       <c r="D20">
-        <v>4.559156844163524</v>
+        <v>5.459856649578102</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.49580895105668</v>
+        <v>26.83666098353204</v>
       </c>
       <c r="G20">
-        <v>41.01078434041391</v>
+        <v>37.37600053484718</v>
       </c>
       <c r="H20">
-        <v>13.11199433160672</v>
+        <v>1.999387954805175</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.987153772290714</v>
       </c>
       <c r="J20">
-        <v>6.301311936966772</v>
+        <v>12.0016934131037</v>
       </c>
       <c r="K20">
-        <v>13.18234567255754</v>
+        <v>20.3729096559867</v>
       </c>
       <c r="L20">
-        <v>6.899915813173485</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>11.89039604715469</v>
+        <v>13.6490839643136</v>
       </c>
       <c r="N20">
-        <v>14.7403770035886</v>
+        <v>9.455374962769765</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.16891850916666</v>
+        <v>17.75672997726849</v>
       </c>
       <c r="C21">
-        <v>7.440172576016627</v>
+        <v>8.91511400144757</v>
       </c>
       <c r="D21">
-        <v>4.69578479934651</v>
+        <v>5.537858340147442</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.05250976214109</v>
+        <v>27.89235404793586</v>
       </c>
       <c r="G21">
-        <v>41.92729468988014</v>
+        <v>38.97640516736538</v>
       </c>
       <c r="H21">
-        <v>13.16329780397099</v>
+        <v>1.705679657712094</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.75056985853145</v>
       </c>
       <c r="J21">
-        <v>6.248554117160815</v>
+        <v>12.21673656791229</v>
       </c>
       <c r="K21">
-        <v>14.00996148805064</v>
+        <v>20.84410710256639</v>
       </c>
       <c r="L21">
-        <v>7.000786163440479</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>12.27030506349813</v>
+        <v>14.38207429889997</v>
       </c>
       <c r="N21">
-        <v>14.47894122748457</v>
+        <v>10.0628344795058</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.7666245672285</v>
+        <v>18.39698260027366</v>
       </c>
       <c r="C22">
-        <v>7.578160407774212</v>
+        <v>9.134482522335746</v>
       </c>
       <c r="D22">
-        <v>4.784352455943243</v>
+        <v>5.592894901112793</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.4351109531145</v>
+        <v>28.5200479291968</v>
       </c>
       <c r="G22">
-        <v>42.55252819461244</v>
+        <v>39.91090808556948</v>
       </c>
       <c r="H22">
-        <v>13.20492715598368</v>
+        <v>1.587613196485159</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.590343861408726</v>
       </c>
       <c r="J22">
-        <v>6.214987496310932</v>
+        <v>12.33991595190083</v>
       </c>
       <c r="K22">
-        <v>14.52983241846752</v>
+        <v>21.10717614828626</v>
       </c>
       <c r="L22">
-        <v>7.068525092519791</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>12.51777145700726</v>
+        <v>14.84756001152687</v>
       </c>
       <c r="N22">
-        <v>14.31065711309704</v>
+        <v>10.35312074230999</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.44920692513573</v>
+        <v>18.06434529228294</v>
       </c>
       <c r="C23">
-        <v>7.504746533196966</v>
+        <v>9.006025568745811</v>
       </c>
       <c r="D23">
-        <v>4.73715563100408</v>
+        <v>5.558849611115191</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.22917415879643</v>
+        <v>28.23644190561391</v>
       </c>
       <c r="G23">
-        <v>42.21641138336607</v>
+        <v>39.50322653702413</v>
       </c>
       <c r="H23">
-        <v>13.18194594709657</v>
+        <v>1.623559277208485</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.663025288937568</v>
       </c>
       <c r="J23">
-        <v>6.232819764367783</v>
+        <v>12.29233081865431</v>
       </c>
       <c r="K23">
-        <v>14.25427175932726</v>
+        <v>21.00933140880843</v>
       </c>
       <c r="L23">
-        <v>7.032207149830111</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>12.3857872596792</v>
+        <v>14.59626774961436</v>
       </c>
       <c r="N23">
-        <v>14.40024138174294</v>
+        <v>10.199774530255</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.21238843055551</v>
+        <v>16.73597366119357</v>
       </c>
       <c r="C24">
-        <v>7.22160911325483</v>
+        <v>8.529740655952601</v>
       </c>
       <c r="D24">
-        <v>4.556913081098495</v>
+        <v>5.43479450440819</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.48702262906462</v>
+        <v>27.07158121402786</v>
       </c>
       <c r="G24">
-        <v>40.99624368333185</v>
+        <v>37.79705439997268</v>
       </c>
       <c r="H24">
-        <v>13.1112877369042</v>
+        <v>1.976001183042555</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.966254059881792</v>
       </c>
       <c r="J24">
-        <v>6.302189823120741</v>
+        <v>12.08700025297203</v>
       </c>
       <c r="K24">
-        <v>13.16845954086066</v>
+        <v>20.57149685055666</v>
       </c>
       <c r="L24">
-        <v>6.898298136183881</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>11.88417685198231</v>
+        <v>13.61385134961344</v>
       </c>
       <c r="N24">
-        <v>14.74469446571554</v>
+        <v>9.597488526730563</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.80662935809515</v>
+        <v>15.17698465220677</v>
       </c>
       <c r="C25">
-        <v>6.905545359487608</v>
+        <v>7.996589151124447</v>
       </c>
       <c r="D25">
-        <v>4.360140674607519</v>
+        <v>5.294642065921992</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.76514282871461</v>
+        <v>25.8012124089646</v>
       </c>
       <c r="G25">
-        <v>39.79099193449787</v>
+        <v>35.92696221858085</v>
       </c>
       <c r="H25">
-        <v>13.06769522385191</v>
+        <v>2.371790774425441</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.309272433626827</v>
       </c>
       <c r="J25">
-        <v>6.381012543315594</v>
+        <v>11.87564217074187</v>
       </c>
       <c r="K25">
-        <v>11.90508810372545</v>
+        <v>20.10425699393723</v>
       </c>
       <c r="L25">
-        <v>6.761811904048268</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>11.34155519458927</v>
+        <v>12.47278461656478</v>
       </c>
       <c r="N25">
-        <v>15.12772728836378</v>
+        <v>8.904929261823529</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.93799972534076</v>
+        <v>13.81974650772085</v>
       </c>
       <c r="C2">
-        <v>7.554672597775903</v>
+        <v>7.551533766234376</v>
       </c>
       <c r="D2">
-        <v>5.174834532387552</v>
+        <v>5.218575307651625</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.99777408527128</v>
+        <v>23.17896356918598</v>
       </c>
       <c r="G2">
-        <v>34.77862626481858</v>
+        <v>31.24014871189237</v>
       </c>
       <c r="H2">
-        <v>2.674143357850994</v>
+        <v>2.523362269223413</v>
       </c>
       <c r="I2">
-        <v>3.549849008426084</v>
+        <v>3.367171516801679</v>
       </c>
       <c r="J2">
-        <v>11.77566722504413</v>
+        <v>11.32500232069899</v>
       </c>
       <c r="K2">
-        <v>19.87528229438952</v>
+        <v>18.25556368512739</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.65789012203418</v>
       </c>
       <c r="M2">
-        <v>11.54931311580042</v>
+        <v>12.41555733956311</v>
       </c>
       <c r="N2">
-        <v>8.3612425003477</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.7505137561664</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.44998891350755</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.0185365347275</v>
+        <v>12.93341907903717</v>
       </c>
       <c r="C3">
-        <v>7.261654250296839</v>
+        <v>7.178146662761859</v>
       </c>
       <c r="D3">
-        <v>5.096953336710337</v>
+        <v>5.10345405316076</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.37427387336053</v>
+        <v>22.73340238380356</v>
       </c>
       <c r="G3">
-        <v>33.85519431482053</v>
+        <v>30.6822894906148</v>
       </c>
       <c r="H3">
-        <v>2.890281093198587</v>
+        <v>2.720853997153772</v>
       </c>
       <c r="I3">
-        <v>3.736011654013268</v>
+        <v>3.529773320925839</v>
       </c>
       <c r="J3">
-        <v>11.68624548084176</v>
+        <v>11.25526373946294</v>
       </c>
       <c r="K3">
-        <v>19.66069304215565</v>
+        <v>18.18197150195193</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.70729932648327</v>
       </c>
       <c r="M3">
-        <v>10.88734564829909</v>
+        <v>12.27467044770553</v>
       </c>
       <c r="N3">
-        <v>7.970328289136954</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.07595216228836</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.072935790704063</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.41904734439819</v>
+        <v>12.35570586077827</v>
       </c>
       <c r="C4">
-        <v>7.076729355199218</v>
+        <v>6.942169056216381</v>
       </c>
       <c r="D4">
-        <v>5.047733010918706</v>
+        <v>5.031281790908732</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.98905651567204</v>
+        <v>22.45921170556774</v>
       </c>
       <c r="G4">
-        <v>33.28123122590925</v>
+        <v>30.34133900313069</v>
       </c>
       <c r="H4">
-        <v>3.027806114257694</v>
+        <v>2.846609260668765</v>
       </c>
       <c r="I4">
-        <v>3.854984998878662</v>
+        <v>3.634040510600117</v>
       </c>
       <c r="J4">
-        <v>11.63294602022943</v>
+        <v>11.21197938491324</v>
       </c>
       <c r="K4">
-        <v>19.5284822861664</v>
+        <v>18.13639842839632</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.73404724902868</v>
       </c>
       <c r="M4">
-        <v>10.4599846076443</v>
+        <v>12.2035688139952</v>
       </c>
       <c r="N4">
-        <v>7.720109739222686</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.64049800103072</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.83201492520213</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.16364885423175</v>
+        <v>12.10974069018431</v>
       </c>
       <c r="C5">
-        <v>7.003582560162613</v>
+        <v>6.849004786417566</v>
       </c>
       <c r="D5">
-        <v>5.028437472501205</v>
+        <v>5.002887746542116</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.81631753989649</v>
+        <v>22.33358619846293</v>
       </c>
       <c r="G5">
-        <v>33.01847804810534</v>
+        <v>30.17832980915461</v>
       </c>
       <c r="H5">
-        <v>3.085469765013334</v>
+        <v>2.899364419571364</v>
       </c>
       <c r="I5">
-        <v>3.907248596568337</v>
+        <v>3.680657705722424</v>
       </c>
       <c r="J5">
-        <v>11.60656923230136</v>
+        <v>11.18970138333016</v>
       </c>
       <c r="K5">
-        <v>19.46264290116529</v>
+        <v>18.10746589563159</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.73512196209053</v>
       </c>
       <c r="M5">
-        <v>10.28217049020913</v>
+        <v>12.17196519106694</v>
       </c>
       <c r="N5">
-        <v>7.615411362711059</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.4592044315352</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.731324478970667</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.11791715298137</v>
+        <v>12.06582117975331</v>
       </c>
       <c r="C6">
-        <v>6.995643179558182</v>
+        <v>6.839152949314947</v>
       </c>
       <c r="D6">
-        <v>5.026583158678152</v>
+        <v>4.999844479950057</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.76885768175076</v>
+        <v>22.29583218723015</v>
       </c>
       <c r="G6">
-        <v>32.9412982588323</v>
+        <v>30.12132510564719</v>
       </c>
       <c r="H6">
-        <v>3.095597445423825</v>
+        <v>2.908636975613479</v>
       </c>
       <c r="I6">
-        <v>3.919312235979112</v>
+        <v>3.69232251912405</v>
       </c>
       <c r="J6">
-        <v>11.59602789055887</v>
+        <v>11.18046386055401</v>
       </c>
       <c r="K6">
-        <v>19.437193840681</v>
+        <v>18.09012885333258</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.72436298654219</v>
       </c>
       <c r="M6">
-        <v>10.25422651023203</v>
+        <v>12.15890991894446</v>
       </c>
       <c r="N6">
-        <v>7.597582276908624</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.43054942692473</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.714190577703599</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.40820064225679</v>
+        <v>12.34715151695485</v>
       </c>
       <c r="C7">
-        <v>7.087311308334039</v>
+        <v>6.95075799498012</v>
       </c>
       <c r="D7">
-        <v>5.051242635347371</v>
+        <v>5.038481394895408</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.93595750598935</v>
+        <v>22.38457615957341</v>
       </c>
       <c r="G7">
-        <v>33.18713515681331</v>
+        <v>30.31459312820303</v>
       </c>
       <c r="H7">
-        <v>3.029862896703979</v>
+        <v>2.84901510455025</v>
       </c>
       <c r="I7">
-        <v>3.864471404269056</v>
+        <v>3.645501427012913</v>
       </c>
       <c r="J7">
-        <v>11.61576452492125</v>
+        <v>11.15013299718183</v>
       </c>
       <c r="K7">
-        <v>19.48813800584589</v>
+        <v>18.08652802676273</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.69176363219155</v>
       </c>
       <c r="M7">
-        <v>10.46268732078858</v>
+        <v>12.17052090004066</v>
       </c>
       <c r="N7">
-        <v>7.717921088980375</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.64077070603021</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.829608399668081</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.6191014595426</v>
+        <v>13.51754605730028</v>
       </c>
       <c r="C8">
-        <v>7.469460877025661</v>
+        <v>7.426211749004858</v>
       </c>
       <c r="D8">
-        <v>5.153379784954358</v>
+        <v>5.195412327798166</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.71840366618584</v>
+        <v>22.87940622895966</v>
       </c>
       <c r="G8">
-        <v>34.3460921262749</v>
+        <v>31.12863684348641</v>
       </c>
       <c r="H8">
-        <v>2.749287140100856</v>
+        <v>2.593588288529943</v>
       </c>
       <c r="I8">
-        <v>3.624317945052483</v>
+        <v>3.437318667486024</v>
       </c>
       <c r="J8">
-        <v>11.72259110570203</v>
+        <v>11.13036875918608</v>
       </c>
       <c r="K8">
-        <v>19.75011085788068</v>
+        <v>18.13602110269446</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.59906619821054</v>
       </c>
       <c r="M8">
-        <v>11.33174114715066</v>
+        <v>12.29713612525746</v>
       </c>
       <c r="N8">
-        <v>8.227663278688361</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.52199216454486</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.320150765850929</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.73005560310596</v>
+        <v>15.55300921670924</v>
       </c>
       <c r="C9">
-        <v>8.159877868320486</v>
+        <v>8.298640744184633</v>
       </c>
       <c r="D9">
-        <v>5.335535952383162</v>
+        <v>5.471292867692883</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.31341040292375</v>
+        <v>24.02022994541261</v>
       </c>
       <c r="G9">
-        <v>36.70739176463319</v>
+        <v>32.66472893472978</v>
       </c>
       <c r="H9">
-        <v>2.234298941472006</v>
+        <v>2.123839905873819</v>
       </c>
       <c r="I9">
-        <v>3.175298253162536</v>
+        <v>3.044683948156965</v>
       </c>
       <c r="J9">
-        <v>11.97433911147659</v>
+        <v>11.28137166973527</v>
       </c>
       <c r="K9">
-        <v>20.32815658364623</v>
+        <v>18.34606300673452</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.48436155963411</v>
       </c>
       <c r="M9">
-        <v>12.8603337397177</v>
+        <v>12.74415501489741</v>
       </c>
       <c r="N9">
-        <v>9.144978568622992</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.07904223329044</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.206793822518177</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.08450200536311</v>
+        <v>16.86953035331776</v>
       </c>
       <c r="C10">
-        <v>8.701439835320354</v>
+        <v>8.94677075217056</v>
       </c>
       <c r="D10">
-        <v>5.484988564895763</v>
+        <v>5.708771723984707</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.22361565370463</v>
+        <v>24.51481784085426</v>
       </c>
       <c r="G10">
-        <v>37.96943334495805</v>
+        <v>33.75289055636793</v>
       </c>
       <c r="H10">
-        <v>1.913594120922675</v>
+        <v>1.836862952057785</v>
       </c>
       <c r="I10">
-        <v>2.879933153649637</v>
+        <v>2.792444576930892</v>
       </c>
       <c r="J10">
-        <v>12.08352108926421</v>
+        <v>11.07551116373634</v>
       </c>
       <c r="K10">
-        <v>20.55435888841908</v>
+        <v>18.26561565625147</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.21317133581976</v>
       </c>
       <c r="M10">
-        <v>13.90171488451005</v>
+        <v>12.95262810769632</v>
       </c>
       <c r="N10">
-        <v>9.576844227923505</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.12658399014436</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.619048905822684</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.41834080565394</v>
+        <v>17.23903472376605</v>
       </c>
       <c r="C11">
-        <v>9.482026534675343</v>
+        <v>9.769483697459759</v>
       </c>
       <c r="D11">
-        <v>5.763521634284761</v>
+        <v>6.075529732764283</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.71887580763277</v>
+        <v>22.93453848269805</v>
       </c>
       <c r="G11">
-        <v>35.14681519711917</v>
+        <v>31.96438387791919</v>
       </c>
       <c r="H11">
-        <v>2.885558695629505</v>
+        <v>2.841140664333392</v>
       </c>
       <c r="I11">
-        <v>2.827072909056863</v>
+        <v>2.75601634930779</v>
       </c>
       <c r="J11">
-        <v>11.46126961085932</v>
+        <v>10.10506727968027</v>
       </c>
       <c r="K11">
-        <v>19.10626484563324</v>
+        <v>16.91012002139909</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.15595826326438</v>
       </c>
       <c r="M11">
-        <v>14.52752842983209</v>
+        <v>11.98968456138385</v>
       </c>
       <c r="N11">
-        <v>8.186546954929195</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.71407774721753</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.226588444893668</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.43396336927144</v>
+        <v>17.2877232550308</v>
       </c>
       <c r="C12">
-        <v>10.09451326349425</v>
+        <v>10.36806519890762</v>
       </c>
       <c r="D12">
-        <v>5.992777029200722</v>
+        <v>6.340011553888843</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.31064401326764</v>
+        <v>21.63333309511876</v>
       </c>
       <c r="G12">
-        <v>32.60145247287554</v>
+        <v>30.11827281074285</v>
       </c>
       <c r="H12">
-        <v>4.246118264209727</v>
+        <v>4.215766352170109</v>
       </c>
       <c r="I12">
-        <v>2.819991585489069</v>
+        <v>2.750296176173687</v>
       </c>
       <c r="J12">
-        <v>10.94091318991386</v>
+        <v>9.549020618901967</v>
       </c>
       <c r="K12">
-        <v>17.92324554436215</v>
+        <v>15.92607522130799</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.44744657484513</v>
       </c>
       <c r="M12">
-        <v>14.8424186146847</v>
+        <v>11.22166060731369</v>
       </c>
       <c r="N12">
-        <v>6.987167296347085</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.00000004654207</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.030507357283756</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.19786738452872</v>
+        <v>17.08313389028534</v>
       </c>
       <c r="C13">
-        <v>10.62805318751559</v>
+        <v>10.87511190336158</v>
       </c>
       <c r="D13">
-        <v>6.200222363171506</v>
+        <v>6.532196896700921</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.79725317136899</v>
+        <v>20.44147029366672</v>
       </c>
       <c r="G13">
-        <v>29.95103735392147</v>
+        <v>27.83935362418591</v>
       </c>
       <c r="H13">
-        <v>5.661061503366693</v>
+        <v>5.635125690738227</v>
       </c>
       <c r="I13">
-        <v>2.863160428467919</v>
+        <v>2.785094636315781</v>
       </c>
       <c r="J13">
-        <v>10.44218621430348</v>
+        <v>9.287328550906853</v>
       </c>
       <c r="K13">
-        <v>16.82043616005782</v>
+        <v>15.14385808719803</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.92420628429167</v>
       </c>
       <c r="M13">
-        <v>14.95224944128316</v>
+        <v>10.55155201417369</v>
       </c>
       <c r="N13">
-        <v>5.880462067105731</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.08896914452932</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.933630839848237</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.91386962899808</v>
+        <v>16.82111199797132</v>
       </c>
       <c r="C14">
-        <v>10.98007440907446</v>
+        <v>11.20352828236708</v>
       </c>
       <c r="D14">
-        <v>6.339532066911266</v>
+        <v>6.635944592694444</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.67160187181011</v>
+        <v>19.63566975606793</v>
       </c>
       <c r="G14">
-        <v>28.02023671922544</v>
+        <v>26.03559264370261</v>
       </c>
       <c r="H14">
-        <v>6.666828457713509</v>
+        <v>6.641691905907668</v>
       </c>
       <c r="I14">
-        <v>2.918620548069667</v>
+        <v>2.831041080421566</v>
       </c>
       <c r="J14">
-        <v>10.10267987506309</v>
+        <v>9.208852585853965</v>
       </c>
       <c r="K14">
-        <v>16.09289786351441</v>
+        <v>14.68374675767994</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.63065766655814</v>
       </c>
       <c r="M14">
-        <v>14.93952367190728</v>
+        <v>10.13020902604975</v>
       </c>
       <c r="N14">
-        <v>5.199954637704886</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.06465212464549</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.263787090215786</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.78723547360678</v>
+        <v>16.70000165519737</v>
       </c>
       <c r="C15">
-        <v>11.04785780855345</v>
+        <v>11.26724629096069</v>
       </c>
       <c r="D15">
-        <v>6.367557248887828</v>
+        <v>6.645928092075193</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.35965629961353</v>
+        <v>19.44278956908241</v>
       </c>
       <c r="G15">
-        <v>27.50085741690368</v>
+        <v>25.49590882758197</v>
       </c>
       <c r="H15">
-        <v>6.902098524630339</v>
+        <v>6.876407122274871</v>
       </c>
       <c r="I15">
-        <v>2.948164756158233</v>
+        <v>2.856900021979049</v>
       </c>
       <c r="J15">
-        <v>10.01966022575612</v>
+        <v>9.229449342750753</v>
       </c>
       <c r="K15">
-        <v>15.92007338005567</v>
+        <v>14.59525667556445</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.57830424193018</v>
       </c>
       <c r="M15">
-        <v>14.89366048218958</v>
+        <v>10.03899405468909</v>
       </c>
       <c r="N15">
-        <v>5.049304135972664</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.01739036435125</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.117272788795441</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.26021378637349</v>
+        <v>16.17396071198152</v>
       </c>
       <c r="C16">
-        <v>10.74943116738126</v>
+        <v>10.98973067708493</v>
       </c>
       <c r="D16">
-        <v>6.26407680757885</v>
+        <v>6.468799500099652</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.19210870599547</v>
+        <v>19.60388928670611</v>
       </c>
       <c r="G16">
-        <v>27.35271932963027</v>
+        <v>24.92662926154388</v>
       </c>
       <c r="H16">
-        <v>6.714780859445424</v>
+        <v>6.681374299116428</v>
       </c>
       <c r="I16">
-        <v>3.070999454625497</v>
+        <v>2.960169655215824</v>
       </c>
       <c r="J16">
-        <v>10.06200069547737</v>
+        <v>9.619422619263265</v>
       </c>
       <c r="K16">
-        <v>16.02433188883823</v>
+        <v>14.85367408589287</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.7865818961591</v>
       </c>
       <c r="M16">
-        <v>14.45670728686883</v>
+        <v>10.18022302140712</v>
       </c>
       <c r="N16">
-        <v>5.029889983162589</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.59427649060052</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.111110757239001</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.0054709240767</v>
+        <v>15.90968386066389</v>
       </c>
       <c r="C17">
-        <v>10.31618385096323</v>
+        <v>10.57592740931452</v>
       </c>
       <c r="D17">
-        <v>6.107176981873109</v>
+        <v>6.28406682488066</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.67405387021619</v>
+        <v>20.13347656213272</v>
       </c>
       <c r="G17">
-        <v>28.28086857969063</v>
+        <v>25.53217502215702</v>
       </c>
       <c r="H17">
-        <v>6.008943505180443</v>
+        <v>5.967477178935777</v>
       </c>
       <c r="I17">
-        <v>3.136865353949919</v>
+        <v>3.016691587053386</v>
       </c>
       <c r="J17">
-        <v>10.27293197100265</v>
+        <v>9.942738270869466</v>
       </c>
       <c r="K17">
-        <v>16.47981003985126</v>
+        <v>15.28379274861725</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.10998715866293</v>
       </c>
       <c r="M17">
-        <v>14.1210976496819</v>
+        <v>10.4904143609047</v>
       </c>
       <c r="N17">
-        <v>5.357727640084988</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.27358627994896</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.44177352777497</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.9702232822965</v>
+        <v>15.85146576244755</v>
       </c>
       <c r="C18">
-        <v>9.731018649178209</v>
+        <v>10.01102056793151</v>
       </c>
       <c r="D18">
-        <v>5.893248955529637</v>
+        <v>6.065120867873102</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.8070323122953</v>
+        <v>21.12495646777382</v>
       </c>
       <c r="G18">
-        <v>30.31605725373542</v>
+        <v>27.15632507588606</v>
       </c>
       <c r="H18">
-        <v>4.808619639363776</v>
+        <v>4.755893085743805</v>
       </c>
       <c r="I18">
-        <v>3.147517638997023</v>
+        <v>3.023710462090556</v>
       </c>
       <c r="J18">
-        <v>10.6714478865347</v>
+        <v>10.32404035484355</v>
       </c>
       <c r="K18">
-        <v>17.3504299113353</v>
+        <v>15.98849864583397</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.63284137086434</v>
       </c>
       <c r="M18">
-        <v>13.83805318878129</v>
+        <v>11.03171357446808</v>
       </c>
       <c r="N18">
-        <v>6.145411015955053</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.01121042834166</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.223401799106221</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.10492051839561</v>
+        <v>15.9540511927648</v>
       </c>
       <c r="C19">
-        <v>9.153679278331946</v>
+        <v>9.438619587557396</v>
       </c>
       <c r="D19">
-        <v>5.680916443210776</v>
+        <v>5.855646074524389</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.29741171286221</v>
+        <v>22.3606463183245</v>
       </c>
       <c r="G19">
-        <v>32.95932728984791</v>
+        <v>29.311874061113</v>
       </c>
       <c r="H19">
-        <v>3.412875005182704</v>
+        <v>3.343080145215776</v>
       </c>
       <c r="I19">
-        <v>3.12706955278837</v>
+        <v>3.008588953320825</v>
       </c>
       <c r="J19">
-        <v>11.17678526507077</v>
+        <v>10.73761513828713</v>
       </c>
       <c r="K19">
-        <v>18.48312875373019</v>
+        <v>16.86482923574037</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.2807055152276</v>
       </c>
       <c r="M19">
-        <v>13.63325107549231</v>
+        <v>11.71705655282735</v>
       </c>
       <c r="N19">
-        <v>7.348333001098134</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.82999097278976</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.415620689668412</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.72035290713544</v>
+        <v>16.5124117908922</v>
       </c>
       <c r="C20">
-        <v>8.596227972901708</v>
+        <v>8.841743707370298</v>
       </c>
       <c r="D20">
-        <v>5.459856649578102</v>
+        <v>5.652417934490626</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.83666098353204</v>
+        <v>24.33785409807734</v>
       </c>
       <c r="G20">
-        <v>37.37600053484718</v>
+        <v>33.03929605009166</v>
       </c>
       <c r="H20">
-        <v>1.999387954805175</v>
+        <v>1.912050730776892</v>
       </c>
       <c r="I20">
-        <v>2.987153772290714</v>
+        <v>2.891909619769863</v>
       </c>
       <c r="J20">
-        <v>12.0016934131037</v>
+        <v>11.23891551692306</v>
       </c>
       <c r="K20">
-        <v>20.3729096559867</v>
+        <v>18.23432739073288</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.24566960269354</v>
       </c>
       <c r="M20">
-        <v>13.6490839643136</v>
+        <v>12.85372433878943</v>
       </c>
       <c r="N20">
-        <v>9.455374962769765</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.87722418560813</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.503576050200271</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.75672997726849</v>
+        <v>17.53580977447931</v>
       </c>
       <c r="C21">
-        <v>8.91511400144757</v>
+        <v>9.1369280993244</v>
       </c>
       <c r="D21">
-        <v>5.537858340147442</v>
+        <v>5.852905195718445</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.89235404793586</v>
+        <v>24.56862005096448</v>
       </c>
       <c r="G21">
-        <v>38.97640516736538</v>
+        <v>35.40878529368463</v>
       </c>
       <c r="H21">
-        <v>1.705679657712094</v>
+        <v>1.651745128151212</v>
       </c>
       <c r="I21">
-        <v>2.75056985853145</v>
+        <v>2.697715227895114</v>
       </c>
       <c r="J21">
-        <v>12.21673656791229</v>
+        <v>10.4102646584478</v>
       </c>
       <c r="K21">
-        <v>20.84410710256639</v>
+        <v>18.13795592578887</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.01680878188925</v>
       </c>
       <c r="M21">
-        <v>14.38207429889997</v>
+        <v>12.99757453163063</v>
       </c>
       <c r="N21">
-        <v>10.0628344795058</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.59016993677143</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>10.09156125640307</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.39698260027366</v>
+        <v>18.17116914318964</v>
       </c>
       <c r="C22">
-        <v>9.134482522335746</v>
+        <v>9.338271195957013</v>
       </c>
       <c r="D22">
-        <v>5.592894901112793</v>
+        <v>5.993522778848321</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.5200479291968</v>
+        <v>24.64886418879343</v>
       </c>
       <c r="G22">
-        <v>39.91090808556948</v>
+        <v>36.96153031814222</v>
       </c>
       <c r="H22">
-        <v>1.587613196485159</v>
+        <v>1.619446659379165</v>
       </c>
       <c r="I22">
-        <v>2.590343861408726</v>
+        <v>2.561992764671801</v>
       </c>
       <c r="J22">
-        <v>12.33991595190083</v>
+        <v>9.84817101111425</v>
       </c>
       <c r="K22">
-        <v>21.10717614828626</v>
+        <v>18.02484085281055</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.83334921909721</v>
       </c>
       <c r="M22">
-        <v>14.84756001152687</v>
+        <v>13.05801912152826</v>
       </c>
       <c r="N22">
-        <v>10.35312074230999</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.04018624460153</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.37026322237002</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.06434529228294</v>
+        <v>17.83749189473799</v>
       </c>
       <c r="C23">
-        <v>9.006025568745811</v>
+        <v>9.227333682105236</v>
       </c>
       <c r="D23">
-        <v>5.558849611115191</v>
+        <v>5.903843485143815</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>28.23644190561391</v>
+        <v>24.71374649487023</v>
       </c>
       <c r="G23">
-        <v>39.50322653702413</v>
+        <v>36.07459120271793</v>
       </c>
       <c r="H23">
-        <v>1.623559277208485</v>
+        <v>1.578880109208549</v>
       </c>
       <c r="I23">
-        <v>2.663025288937568</v>
+        <v>2.618526675131706</v>
       </c>
       <c r="J23">
-        <v>12.29233081865431</v>
+        <v>10.25511281174694</v>
       </c>
       <c r="K23">
-        <v>21.00933140880843</v>
+        <v>18.157980791935</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.98205450343612</v>
       </c>
       <c r="M23">
-        <v>14.59626774961436</v>
+        <v>13.08419934307051</v>
       </c>
       <c r="N23">
-        <v>10.199774530255</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.801224199821</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.22342277495106</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.73597366119357</v>
+        <v>16.52391638933631</v>
       </c>
       <c r="C24">
-        <v>8.529740655952601</v>
+        <v>8.761724128713723</v>
       </c>
       <c r="D24">
-        <v>5.43479450440819</v>
+        <v>5.622672290003522</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.07158121402786</v>
+        <v>24.54260773418103</v>
       </c>
       <c r="G24">
-        <v>37.79705439997268</v>
+        <v>33.39005742444507</v>
       </c>
       <c r="H24">
-        <v>1.976001183042555</v>
+        <v>1.88883126671658</v>
       </c>
       <c r="I24">
-        <v>2.966254059881792</v>
+        <v>2.868107029187197</v>
       </c>
       <c r="J24">
-        <v>12.08700025297203</v>
+        <v>11.31589937893447</v>
       </c>
       <c r="K24">
-        <v>20.57149685055666</v>
+        <v>18.39765007680601</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.36834050301004</v>
       </c>
       <c r="M24">
-        <v>13.61385134961344</v>
+        <v>12.97863639689394</v>
       </c>
       <c r="N24">
-        <v>9.597488526730563</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.84476685313992</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.645044136355201</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.17698465220677</v>
+        <v>15.01833167029317</v>
       </c>
       <c r="C25">
-        <v>7.996589151124447</v>
+        <v>8.101381404412743</v>
       </c>
       <c r="D25">
-        <v>5.294642065921992</v>
+        <v>5.40263024425744</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.8012124089646</v>
+        <v>23.67284528177064</v>
       </c>
       <c r="G25">
-        <v>35.92696221858085</v>
+        <v>32.03580515908656</v>
       </c>
       <c r="H25">
-        <v>2.371790774425441</v>
+        <v>2.248523872716447</v>
       </c>
       <c r="I25">
-        <v>3.309272433626827</v>
+        <v>3.165558308603759</v>
       </c>
       <c r="J25">
-        <v>11.87564217074187</v>
+        <v>11.27917157021118</v>
       </c>
       <c r="K25">
-        <v>20.10425699393723</v>
+        <v>18.25226260952499</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.4898915505717</v>
       </c>
       <c r="M25">
-        <v>12.47278461656478</v>
+        <v>12.58301932022118</v>
       </c>
       <c r="N25">
-        <v>8.904929261823529</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.68619246847693</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.97490098950238</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
